--- a/hydrology/Artes Hydro Regions v8Jun16.xlsx
+++ b/hydrology/Artes Hydro Regions v8Jun16.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="600" windowWidth="23720" windowHeight="15420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="26060" yWindow="7860" windowWidth="23720" windowHeight="11460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
   <si>
     <t>Morris Dam</t>
   </si>
@@ -314,6 +314,18 @@
   <si>
     <t>Ballona Creek Coastal</t>
   </si>
+  <si>
+    <t>Sepulveda Basin above Sepulveda Dam</t>
+  </si>
+  <si>
+    <t>SUR_SPV</t>
+  </si>
+  <si>
+    <t>Supulveda Basin</t>
+  </si>
+  <si>
+    <t>Sepulveda Basin</t>
+  </si>
 </sst>
 </file>
 
@@ -376,8 +388,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -503,7 +521,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -561,6 +579,9 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -618,6 +639,9 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -947,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C47"/>
+  <dimension ref="B1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B47"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1288,49 +1312,57 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
         <v>93</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1350,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT295"/>
+  <dimension ref="A1:AU295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2:AO144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1397,15 +1429,16 @@
     <col min="38" max="38" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="10.83203125" style="1"/>
+    <col min="41" max="41" width="9.33203125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1">
+    <row r="1" spans="1:47" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -1527,25 +1560,28 @@
         <v>19</v>
       </c>
       <c r="AO1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:47">
       <c r="A2" s="1">
         <v>6402</v>
       </c>
@@ -1667,25 +1703,28 @@
         <v>6309</v>
       </c>
       <c r="AO2" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AP2" s="1">
         <v>6334</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AQ2" s="1">
         <v>5157</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AR2" s="1">
         <v>6575</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AS2" s="1">
         <v>6513</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AT2" s="1">
         <v>5369</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AU2" s="1">
         <v>5394</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:47">
       <c r="A3" s="1">
         <v>6404</v>
       </c>
@@ -1801,25 +1840,28 @@
         <v>6310</v>
       </c>
       <c r="AO3" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AP3" s="1">
         <v>6335</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AQ3" s="1">
         <v>5216</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AR3" s="1">
         <v>6576</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AS3" s="1">
         <v>6514</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AT3" s="1">
         <v>5370</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AU3" s="1">
         <v>5395</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:47">
       <c r="A4" s="1">
         <v>6405</v>
       </c>
@@ -1926,25 +1968,28 @@
         <v>6311</v>
       </c>
       <c r="AO4" s="1">
+        <v>6871</v>
+      </c>
+      <c r="AP4" s="1">
         <v>6336</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AQ4" s="1">
         <v>5217</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AR4" s="1">
         <v>6577</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AS4" s="1">
         <v>6515</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AT4" s="1">
         <v>5371</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AU4" s="1">
         <v>5396</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:47">
       <c r="A5" s="1">
         <v>6406</v>
       </c>
@@ -2039,25 +2084,28 @@
         <v>6346</v>
       </c>
       <c r="AO5" s="1">
+        <v>6872</v>
+      </c>
+      <c r="AP5" s="1">
         <v>6337</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <v>5218</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AR5" s="1">
         <v>6578</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AS5" s="1">
         <v>6516</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AT5" s="1">
         <v>5372</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AU5" s="1">
         <v>5397</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:47">
       <c r="A6" s="1">
         <v>6407</v>
       </c>
@@ -2152,25 +2200,28 @@
         <v>6347</v>
       </c>
       <c r="AO6" s="1">
+        <v>6873</v>
+      </c>
+      <c r="AP6" s="1">
         <v>6338</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ6" s="1">
         <v>5219</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AR6" s="1">
         <v>6579</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AS6" s="1">
         <v>6517</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AT6" s="1">
         <v>5373</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AU6" s="1">
         <v>5398</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:47">
       <c r="A7" s="1">
         <v>6408</v>
       </c>
@@ -2261,20 +2312,23 @@
       <c r="AL7" s="1">
         <v>6348</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AO7" s="1">
+        <v>6874</v>
+      </c>
+      <c r="AQ7" s="1">
         <v>5220</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AR7" s="1">
         <v>6580</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AS7" s="1">
         <v>6518</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AT7" s="1">
         <v>5374</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:47">
       <c r="A8" s="1">
         <v>6409</v>
       </c>
@@ -2359,20 +2413,23 @@
       <c r="AL8" s="1">
         <v>6349</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AO8" s="1">
+        <v>6875</v>
+      </c>
+      <c r="AQ8" s="1">
         <v>5221</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AR8" s="1">
         <v>6581</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AS8" s="1">
         <v>6519</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AT8" s="1">
         <v>5375</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:47">
       <c r="A9" s="1">
         <v>6410</v>
       </c>
@@ -2448,20 +2505,23 @@
       <c r="AK9" s="1">
         <v>5165</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AO9" s="1">
+        <v>6876</v>
+      </c>
+      <c r="AQ9" s="1">
         <v>5222</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AR9" s="1">
         <v>6583</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AS9" s="1">
         <v>6520</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AT9" s="1">
         <v>5376</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:47">
       <c r="A10" s="1">
         <v>6411</v>
       </c>
@@ -2537,20 +2597,23 @@
       <c r="AK10" s="1">
         <v>5166</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AO10" s="1">
+        <v>6877</v>
+      </c>
+      <c r="AQ10" s="1">
         <v>5223</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AR10" s="1">
         <v>6584</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AS10" s="1">
         <v>6521</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AT10" s="1">
         <v>5377</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:47">
       <c r="A11" s="1">
         <v>6412</v>
       </c>
@@ -2623,20 +2686,23 @@
       <c r="AK11" s="1">
         <v>5167</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AO11" s="1">
+        <v>6878</v>
+      </c>
+      <c r="AQ11" s="1">
         <v>5224</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AR11" s="1">
         <v>6586</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AS11" s="1">
         <v>6522</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AT11" s="1">
         <v>5378</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:47">
       <c r="A12" s="1">
         <v>6413</v>
       </c>
@@ -2709,20 +2775,23 @@
       <c r="AK12" s="1">
         <v>5168</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AO12" s="1">
+        <v>6879</v>
+      </c>
+      <c r="AQ12" s="1">
         <v>5225</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AR12" s="1">
         <v>6587</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AS12" s="1">
         <v>6523</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AT12" s="1">
         <v>5379</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:47">
       <c r="A13" s="1">
         <v>6415</v>
       </c>
@@ -2792,17 +2861,20 @@
       <c r="AK13" s="1">
         <v>5169</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AO13" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AR13" s="1">
         <v>6588</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AS13" s="1">
         <v>6524</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AT13" s="1">
         <v>5380</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:47">
       <c r="A14" s="1">
         <v>6416</v>
       </c>
@@ -2866,17 +2938,20 @@
       <c r="AK14" s="1">
         <v>5170</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AO14" s="1">
+        <v>6881</v>
+      </c>
+      <c r="AR14" s="1">
         <v>6589</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AS14" s="1">
         <v>6525</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AT14" s="1">
         <v>5381</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:47">
       <c r="A15" s="1">
         <v>6417</v>
       </c>
@@ -2937,17 +3012,20 @@
       <c r="AK15" s="1">
         <v>5171</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AO15" s="1">
+        <v>6882</v>
+      </c>
+      <c r="AR15" s="1">
         <v>6590</v>
       </c>
-      <c r="AR15" s="1">
+      <c r="AS15" s="1">
         <v>6526</v>
       </c>
-      <c r="AS15" s="1">
+      <c r="AT15" s="1">
         <v>5382</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:47">
       <c r="A16" s="1">
         <v>6418</v>
       </c>
@@ -3008,17 +3086,20 @@
       <c r="AK16" s="1">
         <v>5172</v>
       </c>
-      <c r="AQ16" s="1">
+      <c r="AO16" s="1">
+        <v>6883</v>
+      </c>
+      <c r="AR16" s="1">
         <v>6591</v>
       </c>
-      <c r="AR16" s="1">
+      <c r="AS16" s="1">
         <v>6527</v>
       </c>
-      <c r="AS16" s="1">
+      <c r="AT16" s="1">
         <v>5383</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:46">
       <c r="A17" s="1">
         <v>6419</v>
       </c>
@@ -3079,17 +3160,20 @@
       <c r="AK17" s="1">
         <v>5173</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="AO17" s="1">
+        <v>6884</v>
+      </c>
+      <c r="AR17" s="1">
         <v>6592</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="AS17" s="1">
         <v>6528</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="AT17" s="1">
         <v>5384</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:46">
       <c r="A18" s="1">
         <v>6420</v>
       </c>
@@ -3147,17 +3231,20 @@
       <c r="AK18" s="1">
         <v>5174</v>
       </c>
-      <c r="AQ18" s="1">
+      <c r="AO18" s="1">
+        <v>6885</v>
+      </c>
+      <c r="AR18" s="1">
         <v>6593</v>
       </c>
-      <c r="AR18" s="1">
+      <c r="AS18" s="1">
         <v>6529</v>
       </c>
-      <c r="AS18" s="1">
+      <c r="AT18" s="1">
         <v>5385</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:46">
       <c r="A19" s="1">
         <v>6421</v>
       </c>
@@ -3215,17 +3302,20 @@
       <c r="AK19" s="1">
         <v>5175</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AO19" s="1">
+        <v>6886</v>
+      </c>
+      <c r="AR19" s="1">
         <v>6594</v>
       </c>
-      <c r="AR19" s="1">
+      <c r="AS19" s="1">
         <v>6530</v>
       </c>
-      <c r="AS19" s="1">
+      <c r="AT19" s="1">
         <v>5386</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:46">
       <c r="A20" s="1">
         <v>6422</v>
       </c>
@@ -3283,17 +3373,20 @@
       <c r="AK20" s="1">
         <v>5176</v>
       </c>
-      <c r="AQ20" s="1">
+      <c r="AO20" s="1">
+        <v>6887</v>
+      </c>
+      <c r="AR20" s="1">
         <v>6595</v>
       </c>
-      <c r="AR20" s="1">
+      <c r="AS20" s="1">
         <v>6531</v>
       </c>
-      <c r="AS20" s="1">
+      <c r="AT20" s="1">
         <v>5387</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:46">
       <c r="A21" s="1">
         <v>6423</v>
       </c>
@@ -3351,17 +3444,20 @@
       <c r="AK21" s="1">
         <v>5177</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AO21" s="1">
+        <v>6888</v>
+      </c>
+      <c r="AR21" s="1">
         <v>6596</v>
       </c>
-      <c r="AR21" s="1">
+      <c r="AS21" s="1">
         <v>6532</v>
       </c>
-      <c r="AS21" s="1">
+      <c r="AT21" s="1">
         <v>5388</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:46">
       <c r="A22" s="1">
         <v>6424</v>
       </c>
@@ -3416,17 +3512,20 @@
       <c r="AK22" s="1">
         <v>5178</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AO22" s="1">
+        <v>6889</v>
+      </c>
+      <c r="AR22" s="1">
         <v>6597</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AS22" s="1">
         <v>6533</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AT22" s="1">
         <v>5389</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:46">
       <c r="A23" s="1">
         <v>6425</v>
       </c>
@@ -3481,17 +3580,20 @@
       <c r="AK23" s="1">
         <v>5179</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AO23" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AR23" s="1">
         <v>6598</v>
       </c>
-      <c r="AR23" s="1">
+      <c r="AS23" s="1">
         <v>6534</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AT23" s="1">
         <v>5390</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:46">
       <c r="A24" s="1">
         <v>6426</v>
       </c>
@@ -3546,17 +3648,20 @@
       <c r="AK24" s="1">
         <v>5180</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AO24" s="1">
+        <v>6891</v>
+      </c>
+      <c r="AR24" s="1">
         <v>6599</v>
       </c>
-      <c r="AR24" s="1">
+      <c r="AS24" s="1">
         <v>6535</v>
       </c>
-      <c r="AS24" s="1">
+      <c r="AT24" s="1">
         <v>5391</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:46">
       <c r="A25" s="1">
         <v>6427</v>
       </c>
@@ -3611,17 +3716,20 @@
       <c r="AK25" s="1">
         <v>5181</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AO25" s="1">
+        <v>6892</v>
+      </c>
+      <c r="AR25" s="1">
         <v>6600</v>
       </c>
-      <c r="AR25" s="1">
+      <c r="AS25" s="1">
         <v>6536</v>
       </c>
-      <c r="AS25" s="1">
+      <c r="AT25" s="1">
         <v>5392</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:46">
       <c r="A26" s="1">
         <v>6428</v>
       </c>
@@ -3676,17 +3784,20 @@
       <c r="AK26" s="1">
         <v>5182</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AO26" s="1">
+        <v>6893</v>
+      </c>
+      <c r="AR26" s="1">
         <v>6601</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AS26" s="1">
         <v>6537</v>
       </c>
-      <c r="AS26" s="1">
+      <c r="AT26" s="1">
         <v>5393</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:46">
       <c r="A27" s="1">
         <v>6429</v>
       </c>
@@ -3738,14 +3849,17 @@
       <c r="AK27" s="1">
         <v>5183</v>
       </c>
-      <c r="AQ27" s="1">
+      <c r="AO27" s="1">
+        <v>6894</v>
+      </c>
+      <c r="AR27" s="1">
         <v>6602</v>
       </c>
-      <c r="AR27" s="1">
+      <c r="AS27" s="1">
         <v>6538</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:46">
       <c r="A28" s="1">
         <v>6430</v>
       </c>
@@ -3797,14 +3911,17 @@
       <c r="AK28" s="1">
         <v>5184</v>
       </c>
-      <c r="AQ28" s="1">
+      <c r="AO28" s="1">
+        <v>6895</v>
+      </c>
+      <c r="AR28" s="1">
         <v>6603</v>
       </c>
-      <c r="AR28" s="1">
+      <c r="AS28" s="1">
         <v>6539</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:46">
       <c r="A29" s="1">
         <v>6431</v>
       </c>
@@ -3853,14 +3970,17 @@
       <c r="AK29" s="1">
         <v>5185</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AO29" s="1">
+        <v>6896</v>
+      </c>
+      <c r="AR29" s="1">
         <v>6604</v>
       </c>
-      <c r="AR29" s="1">
+      <c r="AS29" s="1">
         <v>6540</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:46">
       <c r="A30" s="1">
         <v>6432</v>
       </c>
@@ -3909,14 +4029,17 @@
       <c r="AK30" s="1">
         <v>5186</v>
       </c>
-      <c r="AQ30" s="1">
+      <c r="AO30" s="1">
+        <v>6897</v>
+      </c>
+      <c r="AR30" s="1">
         <v>6605</v>
       </c>
-      <c r="AR30" s="1">
+      <c r="AS30" s="1">
         <v>6541</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:46">
       <c r="A31" s="1">
         <v>6433</v>
       </c>
@@ -3965,14 +4088,17 @@
       <c r="AK31" s="1">
         <v>5187</v>
       </c>
-      <c r="AQ31" s="1">
+      <c r="AO31" s="1">
+        <v>6898</v>
+      </c>
+      <c r="AR31" s="1">
         <v>6606</v>
       </c>
-      <c r="AR31" s="1">
+      <c r="AS31" s="1">
         <v>6542</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:46">
       <c r="A32" s="1">
         <v>6434</v>
       </c>
@@ -4021,14 +4147,17 @@
       <c r="AK32" s="1">
         <v>5188</v>
       </c>
-      <c r="AQ32" s="1">
+      <c r="AO32" s="1">
+        <v>6899</v>
+      </c>
+      <c r="AR32" s="1">
         <v>6607</v>
       </c>
-      <c r="AR32" s="1">
+      <c r="AS32" s="1">
         <v>6543</v>
       </c>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:45">
       <c r="A33" s="1">
         <v>6435</v>
       </c>
@@ -4077,14 +4206,17 @@
       <c r="AK33" s="1">
         <v>5189</v>
       </c>
-      <c r="AQ33" s="1">
+      <c r="AO33" s="1">
+        <v>6900</v>
+      </c>
+      <c r="AR33" s="1">
         <v>6608</v>
       </c>
-      <c r="AR33" s="1">
+      <c r="AS33" s="1">
         <v>6544</v>
       </c>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:45">
       <c r="A34" s="1">
         <v>6436</v>
       </c>
@@ -4133,14 +4265,17 @@
       <c r="AK34" s="1">
         <v>5190</v>
       </c>
-      <c r="AQ34" s="1">
+      <c r="AO34" s="1">
+        <v>6901</v>
+      </c>
+      <c r="AR34" s="1">
         <v>6609</v>
       </c>
-      <c r="AR34" s="1">
+      <c r="AS34" s="1">
         <v>6545</v>
       </c>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:45">
       <c r="A35" s="1">
         <v>6437</v>
       </c>
@@ -4186,14 +4321,17 @@
       <c r="AK35" s="1">
         <v>5191</v>
       </c>
-      <c r="AQ35" s="1">
+      <c r="AO35" s="1">
+        <v>6902</v>
+      </c>
+      <c r="AR35" s="1">
         <v>6610</v>
       </c>
-      <c r="AR35" s="1">
+      <c r="AS35" s="1">
         <v>6546</v>
       </c>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:45">
       <c r="A36" s="1">
         <v>6438</v>
       </c>
@@ -4239,14 +4377,17 @@
       <c r="AK36" s="1">
         <v>5192</v>
       </c>
-      <c r="AQ36" s="1">
+      <c r="AO36" s="1">
+        <v>6903</v>
+      </c>
+      <c r="AR36" s="1">
         <v>6611</v>
       </c>
-      <c r="AR36" s="1">
+      <c r="AS36" s="1">
         <v>6547</v>
       </c>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:45">
       <c r="A37" s="1">
         <v>6439</v>
       </c>
@@ -4289,14 +4430,17 @@
       <c r="AK37" s="1">
         <v>5193</v>
       </c>
-      <c r="AQ37" s="1">
+      <c r="AO37" s="1">
+        <v>6904</v>
+      </c>
+      <c r="AR37" s="1">
         <v>6612</v>
       </c>
-      <c r="AR37" s="1">
+      <c r="AS37" s="1">
         <v>6548</v>
       </c>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:45">
       <c r="A38" s="1">
         <v>6440</v>
       </c>
@@ -4339,14 +4483,17 @@
       <c r="AK38" s="1">
         <v>5194</v>
       </c>
-      <c r="AQ38" s="1">
+      <c r="AO38" s="1">
+        <v>6905</v>
+      </c>
+      <c r="AR38" s="1">
         <v>6613</v>
       </c>
-      <c r="AR38" s="1">
+      <c r="AS38" s="1">
         <v>6549</v>
       </c>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:45">
       <c r="A39" s="1">
         <v>6441</v>
       </c>
@@ -4386,14 +4533,17 @@
       <c r="AK39" s="1">
         <v>5195</v>
       </c>
-      <c r="AQ39" s="1">
+      <c r="AO39" s="1">
+        <v>6906</v>
+      </c>
+      <c r="AR39" s="1">
         <v>6614</v>
       </c>
-      <c r="AR39" s="1">
+      <c r="AS39" s="1">
         <v>6550</v>
       </c>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:45">
       <c r="A40" s="1">
         <v>6442</v>
       </c>
@@ -4433,14 +4583,17 @@
       <c r="AK40" s="1">
         <v>5196</v>
       </c>
-      <c r="AQ40" s="1">
+      <c r="AO40" s="1">
+        <v>6907</v>
+      </c>
+      <c r="AR40" s="1">
         <v>6615</v>
       </c>
-      <c r="AR40" s="1">
+      <c r="AS40" s="1">
         <v>6551</v>
       </c>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:45">
       <c r="A41" s="1">
         <v>6443</v>
       </c>
@@ -4480,14 +4633,17 @@
       <c r="AK41" s="1">
         <v>5197</v>
       </c>
-      <c r="AQ41" s="1">
+      <c r="AO41" s="1">
+        <v>6908</v>
+      </c>
+      <c r="AR41" s="1">
         <v>6616</v>
       </c>
-      <c r="AR41" s="1">
+      <c r="AS41" s="1">
         <v>6552</v>
       </c>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:45">
       <c r="A42" s="1">
         <v>6444</v>
       </c>
@@ -4527,14 +4683,17 @@
       <c r="AK42" s="1">
         <v>5198</v>
       </c>
-      <c r="AQ42" s="1">
+      <c r="AO42" s="1">
+        <v>6909</v>
+      </c>
+      <c r="AR42" s="1">
         <v>6617</v>
       </c>
-      <c r="AR42" s="1">
+      <c r="AS42" s="1">
         <v>6553</v>
       </c>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:45">
       <c r="A43" s="1">
         <v>6445</v>
       </c>
@@ -4574,14 +4733,17 @@
       <c r="AK43" s="1">
         <v>5199</v>
       </c>
-      <c r="AQ43" s="1">
+      <c r="AO43" s="1">
+        <v>6910</v>
+      </c>
+      <c r="AR43" s="1">
         <v>6618</v>
       </c>
-      <c r="AR43" s="1">
+      <c r="AS43" s="1">
         <v>6554</v>
       </c>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:45">
       <c r="A44" s="1">
         <v>6446</v>
       </c>
@@ -4621,14 +4783,17 @@
       <c r="AK44" s="1">
         <v>5200</v>
       </c>
-      <c r="AQ44" s="1">
+      <c r="AO44" s="1">
+        <v>6911</v>
+      </c>
+      <c r="AR44" s="1">
         <v>6619</v>
       </c>
-      <c r="AR44" s="1">
+      <c r="AS44" s="1">
         <v>6555</v>
       </c>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:45">
       <c r="A45" s="1">
         <v>6447</v>
       </c>
@@ -4668,14 +4833,17 @@
       <c r="AK45" s="1">
         <v>5201</v>
       </c>
-      <c r="AQ45" s="1">
+      <c r="AO45" s="1">
+        <v>6912</v>
+      </c>
+      <c r="AR45" s="1">
         <v>6620</v>
       </c>
-      <c r="AR45" s="1">
+      <c r="AS45" s="1">
         <v>6556</v>
       </c>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:45">
       <c r="A46" s="1">
         <v>6448</v>
       </c>
@@ -4715,14 +4883,17 @@
       <c r="AK46" s="1">
         <v>5202</v>
       </c>
-      <c r="AQ46" s="1">
+      <c r="AO46" s="1">
+        <v>6913</v>
+      </c>
+      <c r="AR46" s="1">
         <v>6621</v>
       </c>
-      <c r="AR46" s="1">
+      <c r="AS46" s="1">
         <v>6557</v>
       </c>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:45">
       <c r="A47" s="1">
         <v>6449</v>
       </c>
@@ -4762,14 +4933,17 @@
       <c r="AK47" s="1">
         <v>5203</v>
       </c>
-      <c r="AQ47" s="1">
+      <c r="AO47" s="1">
+        <v>6914</v>
+      </c>
+      <c r="AR47" s="1">
         <v>6622</v>
       </c>
-      <c r="AR47" s="1">
+      <c r="AS47" s="1">
         <v>6558</v>
       </c>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:45">
       <c r="A48" s="1">
         <v>6450</v>
       </c>
@@ -4809,14 +4983,17 @@
       <c r="AK48" s="1">
         <v>5204</v>
       </c>
-      <c r="AQ48" s="1">
+      <c r="AO48" s="1">
+        <v>6915</v>
+      </c>
+      <c r="AR48" s="1">
         <v>6623</v>
       </c>
-      <c r="AR48" s="1">
+      <c r="AS48" s="1">
         <v>6559</v>
       </c>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:45">
       <c r="A49" s="1">
         <v>6451</v>
       </c>
@@ -4856,14 +5033,17 @@
       <c r="AK49" s="1">
         <v>5205</v>
       </c>
-      <c r="AQ49" s="1">
+      <c r="AO49" s="1">
+        <v>6916</v>
+      </c>
+      <c r="AR49" s="1">
         <v>6624</v>
       </c>
-      <c r="AR49" s="1">
+      <c r="AS49" s="1">
         <v>6560</v>
       </c>
     </row>
-    <row r="50" spans="1:44">
+    <row r="50" spans="1:45">
       <c r="A50" s="1">
         <v>6452</v>
       </c>
@@ -4903,14 +5083,17 @@
       <c r="AK50" s="1">
         <v>5206</v>
       </c>
-      <c r="AQ50" s="1">
+      <c r="AO50" s="1">
+        <v>6917</v>
+      </c>
+      <c r="AR50" s="1">
         <v>6625</v>
       </c>
-      <c r="AR50" s="1">
+      <c r="AS50" s="1">
         <v>6561</v>
       </c>
     </row>
-    <row r="51" spans="1:44">
+    <row r="51" spans="1:45">
       <c r="A51" s="1">
         <v>6453</v>
       </c>
@@ -4950,14 +5133,17 @@
       <c r="AK51" s="1">
         <v>5207</v>
       </c>
-      <c r="AQ51" s="1">
+      <c r="AO51" s="1">
+        <v>6918</v>
+      </c>
+      <c r="AR51" s="1">
         <v>6626</v>
       </c>
-      <c r="AR51" s="1">
+      <c r="AS51" s="1">
         <v>6562</v>
       </c>
     </row>
-    <row r="52" spans="1:44">
+    <row r="52" spans="1:45">
       <c r="A52" s="1">
         <v>6454</v>
       </c>
@@ -4997,14 +5183,17 @@
       <c r="AK52" s="1">
         <v>5208</v>
       </c>
-      <c r="AQ52" s="1">
+      <c r="AO52" s="1">
+        <v>6919</v>
+      </c>
+      <c r="AR52" s="1">
         <v>6627</v>
       </c>
-      <c r="AR52" s="1">
+      <c r="AS52" s="1">
         <v>6563</v>
       </c>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:45">
       <c r="A53" s="1">
         <v>6455</v>
       </c>
@@ -5044,14 +5233,17 @@
       <c r="AK53" s="1">
         <v>5209</v>
       </c>
-      <c r="AQ53" s="1">
+      <c r="AO53" s="1">
+        <v>6920</v>
+      </c>
+      <c r="AR53" s="1">
         <v>6628</v>
       </c>
-      <c r="AR53" s="1">
+      <c r="AS53" s="1">
         <v>6564</v>
       </c>
     </row>
-    <row r="54" spans="1:44">
+    <row r="54" spans="1:45">
       <c r="A54" s="1">
         <v>6456</v>
       </c>
@@ -5091,14 +5283,17 @@
       <c r="AK54" s="1">
         <v>5210</v>
       </c>
-      <c r="AQ54" s="1">
+      <c r="AO54" s="1">
+        <v>6921</v>
+      </c>
+      <c r="AR54" s="1">
         <v>6629</v>
       </c>
-      <c r="AR54" s="1">
+      <c r="AS54" s="1">
         <v>6565</v>
       </c>
     </row>
-    <row r="55" spans="1:44">
+    <row r="55" spans="1:45">
       <c r="A55" s="1">
         <v>6457</v>
       </c>
@@ -5138,14 +5333,17 @@
       <c r="AK55" s="1">
         <v>5211</v>
       </c>
-      <c r="AQ55" s="1">
+      <c r="AO55" s="1">
+        <v>6922</v>
+      </c>
+      <c r="AR55" s="1">
         <v>6630</v>
       </c>
-      <c r="AR55" s="1">
+      <c r="AS55" s="1">
         <v>6566</v>
       </c>
     </row>
-    <row r="56" spans="1:44">
+    <row r="56" spans="1:45">
       <c r="A56" s="1">
         <v>6458</v>
       </c>
@@ -5185,14 +5383,17 @@
       <c r="AK56" s="1">
         <v>5212</v>
       </c>
-      <c r="AQ56" s="1">
+      <c r="AO56" s="1">
+        <v>6923</v>
+      </c>
+      <c r="AR56" s="1">
         <v>6631</v>
       </c>
-      <c r="AR56" s="1">
+      <c r="AS56" s="1">
         <v>6567</v>
       </c>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:45">
       <c r="A57" s="1">
         <v>6459</v>
       </c>
@@ -5232,14 +5433,17 @@
       <c r="AK57" s="1">
         <v>5213</v>
       </c>
-      <c r="AQ57" s="1">
+      <c r="AO57" s="1">
+        <v>6924</v>
+      </c>
+      <c r="AR57" s="1">
         <v>6632</v>
       </c>
-      <c r="AR57" s="1">
+      <c r="AS57" s="1">
         <v>6568</v>
       </c>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:45">
       <c r="A58" s="1">
         <v>6460</v>
       </c>
@@ -5276,14 +5480,17 @@
       <c r="AK58" s="1">
         <v>5214</v>
       </c>
-      <c r="AQ58" s="1">
+      <c r="AO58" s="1">
+        <v>6925</v>
+      </c>
+      <c r="AR58" s="1">
         <v>6633</v>
       </c>
-      <c r="AR58" s="1">
+      <c r="AS58" s="1">
         <v>6569</v>
       </c>
     </row>
-    <row r="59" spans="1:44">
+    <row r="59" spans="1:45">
       <c r="A59" s="1">
         <v>6461</v>
       </c>
@@ -5320,14 +5527,17 @@
       <c r="AK59" s="1">
         <v>5215</v>
       </c>
-      <c r="AQ59" s="1">
+      <c r="AO59" s="1">
+        <v>6926</v>
+      </c>
+      <c r="AR59" s="1">
         <v>6634</v>
       </c>
-      <c r="AR59" s="1">
+      <c r="AS59" s="1">
         <v>6570</v>
       </c>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:45">
       <c r="A60" s="1">
         <v>6462</v>
       </c>
@@ -5361,14 +5571,17 @@
       <c r="AG60" s="1">
         <v>5331</v>
       </c>
-      <c r="AQ60" s="1">
+      <c r="AO60" s="1">
+        <v>6927</v>
+      </c>
+      <c r="AR60" s="1">
         <v>6635</v>
       </c>
-      <c r="AR60" s="1">
+      <c r="AS60" s="1">
         <v>6571</v>
       </c>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:45">
       <c r="A61" s="1">
         <v>6463</v>
       </c>
@@ -5402,14 +5615,17 @@
       <c r="AG61" s="1">
         <v>5332</v>
       </c>
-      <c r="AQ61" s="1">
+      <c r="AO61" s="1">
+        <v>6928</v>
+      </c>
+      <c r="AR61" s="1">
         <v>6636</v>
       </c>
-      <c r="AR61" s="1">
+      <c r="AS61" s="1">
         <v>6572</v>
       </c>
     </row>
-    <row r="62" spans="1:44">
+    <row r="62" spans="1:45">
       <c r="A62" s="1">
         <v>6464</v>
       </c>
@@ -5443,14 +5659,17 @@
       <c r="AG62" s="1">
         <v>5333</v>
       </c>
-      <c r="AQ62" s="1">
+      <c r="AO62" s="1">
+        <v>6929</v>
+      </c>
+      <c r="AR62" s="1">
         <v>6637</v>
       </c>
-      <c r="AR62" s="1">
+      <c r="AS62" s="1">
         <v>6573</v>
       </c>
     </row>
-    <row r="63" spans="1:44">
+    <row r="63" spans="1:45">
       <c r="A63" s="1">
         <v>6465</v>
       </c>
@@ -5484,14 +5703,17 @@
       <c r="AG63" s="1">
         <v>5334</v>
       </c>
-      <c r="AQ63" s="1">
+      <c r="AO63" s="1">
+        <v>6930</v>
+      </c>
+      <c r="AR63" s="1">
         <v>6638</v>
       </c>
-      <c r="AR63" s="1">
+      <c r="AS63" s="1">
         <v>6574</v>
       </c>
     </row>
-    <row r="64" spans="1:44">
+    <row r="64" spans="1:45">
       <c r="A64" s="1">
         <v>6466</v>
       </c>
@@ -5525,14 +5747,17 @@
       <c r="AG64" s="1">
         <v>5335</v>
       </c>
-      <c r="AQ64" s="1">
+      <c r="AO64" s="1">
+        <v>6931</v>
+      </c>
+      <c r="AR64" s="1">
         <v>6639</v>
       </c>
-      <c r="AR64" s="1">
+      <c r="AS64" s="1">
         <v>6582</v>
       </c>
     </row>
-    <row r="65" spans="1:44">
+    <row r="65" spans="1:45">
       <c r="A65" s="1">
         <v>6467</v>
       </c>
@@ -5566,14 +5791,17 @@
       <c r="AG65" s="1">
         <v>5336</v>
       </c>
-      <c r="AQ65" s="1">
+      <c r="AO65" s="1">
+        <v>6932</v>
+      </c>
+      <c r="AR65" s="1">
         <v>6640</v>
       </c>
-      <c r="AR65" s="1">
+      <c r="AS65" s="1">
         <v>6585</v>
       </c>
     </row>
-    <row r="66" spans="1:44">
+    <row r="66" spans="1:45">
       <c r="A66" s="1">
         <v>6468</v>
       </c>
@@ -5607,11 +5835,14 @@
       <c r="AG66" s="1">
         <v>5337</v>
       </c>
-      <c r="AQ66" s="1">
+      <c r="AO66" s="1">
+        <v>6933</v>
+      </c>
+      <c r="AR66" s="1">
         <v>6641</v>
       </c>
     </row>
-    <row r="67" spans="1:44">
+    <row r="67" spans="1:45">
       <c r="A67" s="1">
         <v>6469</v>
       </c>
@@ -5645,11 +5876,14 @@
       <c r="AG67" s="1">
         <v>5338</v>
       </c>
-      <c r="AQ67" s="1">
+      <c r="AO67" s="1">
+        <v>6934</v>
+      </c>
+      <c r="AR67" s="1">
         <v>6642</v>
       </c>
     </row>
-    <row r="68" spans="1:44">
+    <row r="68" spans="1:45">
       <c r="A68" s="1">
         <v>6470</v>
       </c>
@@ -5680,11 +5914,14 @@
       <c r="AG68" s="1">
         <v>5339</v>
       </c>
-      <c r="AQ68" s="1">
+      <c r="AO68" s="1">
+        <v>6935</v>
+      </c>
+      <c r="AR68" s="1">
         <v>6643</v>
       </c>
     </row>
-    <row r="69" spans="1:44">
+    <row r="69" spans="1:45">
       <c r="A69" s="1">
         <v>6471</v>
       </c>
@@ -5715,11 +5952,14 @@
       <c r="AG69" s="1">
         <v>5340</v>
       </c>
-      <c r="AQ69" s="1">
+      <c r="AO69" s="1">
+        <v>6936</v>
+      </c>
+      <c r="AR69" s="1">
         <v>6644</v>
       </c>
     </row>
-    <row r="70" spans="1:44">
+    <row r="70" spans="1:45">
       <c r="A70" s="1">
         <v>6472</v>
       </c>
@@ -5750,11 +5990,14 @@
       <c r="AG70" s="1">
         <v>5341</v>
       </c>
-      <c r="AQ70" s="1">
+      <c r="AO70" s="1">
+        <v>6937</v>
+      </c>
+      <c r="AR70" s="1">
         <v>6645</v>
       </c>
     </row>
-    <row r="71" spans="1:44">
+    <row r="71" spans="1:45">
       <c r="B71" s="1">
         <v>1108</v>
       </c>
@@ -5782,11 +6025,14 @@
       <c r="AG71" s="1">
         <v>5342</v>
       </c>
-      <c r="AQ71" s="1">
+      <c r="AO71" s="1">
+        <v>6938</v>
+      </c>
+      <c r="AR71" s="1">
         <v>6646</v>
       </c>
     </row>
-    <row r="72" spans="1:44">
+    <row r="72" spans="1:45">
       <c r="B72" s="1">
         <v>1109</v>
       </c>
@@ -5814,11 +6060,14 @@
       <c r="AG72" s="1">
         <v>5343</v>
       </c>
-      <c r="AQ72" s="1">
+      <c r="AO72" s="1">
+        <v>6939</v>
+      </c>
+      <c r="AR72" s="1">
         <v>6647</v>
       </c>
     </row>
-    <row r="73" spans="1:44">
+    <row r="73" spans="1:45">
       <c r="B73" s="1">
         <v>1110</v>
       </c>
@@ -5846,11 +6095,14 @@
       <c r="AG73" s="1">
         <v>5344</v>
       </c>
-      <c r="AQ73" s="1">
+      <c r="AO73" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AR73" s="1">
         <v>6648</v>
       </c>
     </row>
-    <row r="74" spans="1:44">
+    <row r="74" spans="1:45">
       <c r="B74" s="1">
         <v>1111</v>
       </c>
@@ -5878,11 +6130,14 @@
       <c r="AG74" s="1">
         <v>5345</v>
       </c>
-      <c r="AQ74" s="1">
+      <c r="AO74" s="1">
+        <v>6941</v>
+      </c>
+      <c r="AR74" s="1">
         <v>6649</v>
       </c>
     </row>
-    <row r="75" spans="1:44">
+    <row r="75" spans="1:45">
       <c r="B75" s="1">
         <v>1112</v>
       </c>
@@ -5910,11 +6165,14 @@
       <c r="AG75" s="1">
         <v>5346</v>
       </c>
-      <c r="AQ75" s="1">
+      <c r="AO75" s="1">
+        <v>6942</v>
+      </c>
+      <c r="AR75" s="1">
         <v>6650</v>
       </c>
     </row>
-    <row r="76" spans="1:44">
+    <row r="76" spans="1:45">
       <c r="B76" s="1">
         <v>1113</v>
       </c>
@@ -5942,11 +6200,14 @@
       <c r="AG76" s="1">
         <v>5347</v>
       </c>
-      <c r="AQ76" s="1">
+      <c r="AO76" s="1">
+        <v>6943</v>
+      </c>
+      <c r="AR76" s="1">
         <v>6651</v>
       </c>
     </row>
-    <row r="77" spans="1:44">
+    <row r="77" spans="1:45">
       <c r="B77" s="1">
         <v>1114</v>
       </c>
@@ -5971,11 +6232,14 @@
       <c r="AG77" s="1">
         <v>5348</v>
       </c>
-      <c r="AQ77" s="1">
+      <c r="AO77" s="1">
+        <v>6944</v>
+      </c>
+      <c r="AR77" s="1">
         <v>6652</v>
       </c>
     </row>
-    <row r="78" spans="1:44">
+    <row r="78" spans="1:45">
       <c r="B78" s="1">
         <v>1264</v>
       </c>
@@ -6000,11 +6264,14 @@
       <c r="AG78" s="1">
         <v>5349</v>
       </c>
-      <c r="AQ78" s="1">
+      <c r="AO78" s="1">
+        <v>6945</v>
+      </c>
+      <c r="AR78" s="1">
         <v>6653</v>
       </c>
     </row>
-    <row r="79" spans="1:44">
+    <row r="79" spans="1:45">
       <c r="C79" s="1">
         <v>1153</v>
       </c>
@@ -6026,11 +6293,14 @@
       <c r="AG79" s="1">
         <v>5350</v>
       </c>
-      <c r="AQ79" s="1">
+      <c r="AO79" s="1">
+        <v>6946</v>
+      </c>
+      <c r="AR79" s="1">
         <v>6654</v>
       </c>
     </row>
-    <row r="80" spans="1:44">
+    <row r="80" spans="1:45">
       <c r="C80" s="1">
         <v>1154</v>
       </c>
@@ -6052,11 +6322,14 @@
       <c r="AG80" s="1">
         <v>5351</v>
       </c>
-      <c r="AQ80" s="1">
+      <c r="AO80" s="1">
+        <v>6947</v>
+      </c>
+      <c r="AR80" s="1">
         <v>6655</v>
       </c>
     </row>
-    <row r="81" spans="3:43">
+    <row r="81" spans="3:44">
       <c r="C81" s="1">
         <v>1155</v>
       </c>
@@ -6078,11 +6351,14 @@
       <c r="AG81" s="1">
         <v>5352</v>
       </c>
-      <c r="AQ81" s="1">
+      <c r="AO81" s="1">
+        <v>6948</v>
+      </c>
+      <c r="AR81" s="1">
         <v>6656</v>
       </c>
     </row>
-    <row r="82" spans="3:43">
+    <row r="82" spans="3:44">
       <c r="C82" s="1">
         <v>1156</v>
       </c>
@@ -6104,11 +6380,14 @@
       <c r="AG82" s="1">
         <v>5353</v>
       </c>
-      <c r="AQ82" s="1">
+      <c r="AO82" s="1">
+        <v>6949</v>
+      </c>
+      <c r="AR82" s="1">
         <v>6657</v>
       </c>
     </row>
-    <row r="83" spans="3:43">
+    <row r="83" spans="3:44">
       <c r="C83" s="1">
         <v>1157</v>
       </c>
@@ -6130,11 +6409,14 @@
       <c r="AG83" s="1">
         <v>5354</v>
       </c>
-      <c r="AQ83" s="1">
+      <c r="AO83" s="1">
+        <v>6950</v>
+      </c>
+      <c r="AR83" s="1">
         <v>6658</v>
       </c>
     </row>
-    <row r="84" spans="3:43">
+    <row r="84" spans="3:44">
       <c r="C84" s="1">
         <v>1158</v>
       </c>
@@ -6156,11 +6438,14 @@
       <c r="AG84" s="1">
         <v>5355</v>
       </c>
-      <c r="AQ84" s="1">
+      <c r="AO84" s="1">
+        <v>6951</v>
+      </c>
+      <c r="AR84" s="1">
         <v>6659</v>
       </c>
     </row>
-    <row r="85" spans="3:43">
+    <row r="85" spans="3:44">
       <c r="C85" s="1">
         <v>1159</v>
       </c>
@@ -6182,11 +6467,14 @@
       <c r="AG85" s="1">
         <v>5356</v>
       </c>
-      <c r="AQ85" s="1">
+      <c r="AO85" s="1">
+        <v>6952</v>
+      </c>
+      <c r="AR85" s="1">
         <v>6660</v>
       </c>
     </row>
-    <row r="86" spans="3:43">
+    <row r="86" spans="3:44">
       <c r="C86" s="1">
         <v>1160</v>
       </c>
@@ -6208,11 +6496,14 @@
       <c r="AG86" s="1">
         <v>5357</v>
       </c>
-      <c r="AQ86" s="1">
+      <c r="AO86" s="1">
+        <v>6953</v>
+      </c>
+      <c r="AR86" s="1">
         <v>6661</v>
       </c>
     </row>
-    <row r="87" spans="3:43">
+    <row r="87" spans="3:44">
       <c r="C87" s="1">
         <v>1161</v>
       </c>
@@ -6234,11 +6525,14 @@
       <c r="AG87" s="1">
         <v>5358</v>
       </c>
-      <c r="AQ87" s="1">
+      <c r="AO87" s="1">
+        <v>6954</v>
+      </c>
+      <c r="AR87" s="1">
         <v>6662</v>
       </c>
     </row>
-    <row r="88" spans="3:43">
+    <row r="88" spans="3:44">
       <c r="C88" s="1">
         <v>1162</v>
       </c>
@@ -6260,11 +6554,14 @@
       <c r="AG88" s="1">
         <v>5359</v>
       </c>
-      <c r="AQ88" s="1">
+      <c r="AO88" s="1">
+        <v>6955</v>
+      </c>
+      <c r="AR88" s="1">
         <v>6663</v>
       </c>
     </row>
-    <row r="89" spans="3:43">
+    <row r="89" spans="3:44">
       <c r="C89" s="1">
         <v>1163</v>
       </c>
@@ -6283,11 +6580,14 @@
       <c r="AD89" s="1">
         <v>6195</v>
       </c>
-      <c r="AQ89" s="1">
+      <c r="AO89" s="1">
+        <v>6956</v>
+      </c>
+      <c r="AR89" s="1">
         <v>6664</v>
       </c>
     </row>
-    <row r="90" spans="3:43">
+    <row r="90" spans="3:44">
       <c r="C90" s="1">
         <v>1164</v>
       </c>
@@ -6306,11 +6606,14 @@
       <c r="AD90" s="1">
         <v>6196</v>
       </c>
-      <c r="AQ90" s="1">
+      <c r="AO90" s="1">
+        <v>6957</v>
+      </c>
+      <c r="AR90" s="1">
         <v>6665</v>
       </c>
     </row>
-    <row r="91" spans="3:43">
+    <row r="91" spans="3:44">
       <c r="C91" s="1">
         <v>1165</v>
       </c>
@@ -6329,11 +6632,14 @@
       <c r="AD91" s="1">
         <v>6197</v>
       </c>
-      <c r="AQ91" s="1">
+      <c r="AO91" s="1">
+        <v>6958</v>
+      </c>
+      <c r="AR91" s="1">
         <v>6666</v>
       </c>
     </row>
-    <row r="92" spans="3:43">
+    <row r="92" spans="3:44">
       <c r="C92" s="1">
         <v>1166</v>
       </c>
@@ -6352,11 +6658,14 @@
       <c r="AD92" s="1">
         <v>6198</v>
       </c>
-      <c r="AQ92" s="1">
+      <c r="AO92" s="1">
+        <v>6959</v>
+      </c>
+      <c r="AR92" s="1">
         <v>6667</v>
       </c>
     </row>
-    <row r="93" spans="3:43">
+    <row r="93" spans="3:44">
       <c r="C93" s="1">
         <v>1167</v>
       </c>
@@ -6375,11 +6684,14 @@
       <c r="AD93" s="1">
         <v>6199</v>
       </c>
-      <c r="AQ93" s="1">
+      <c r="AO93" s="1">
+        <v>6960</v>
+      </c>
+      <c r="AR93" s="1">
         <v>6668</v>
       </c>
     </row>
-    <row r="94" spans="3:43">
+    <row r="94" spans="3:44">
       <c r="C94" s="1">
         <v>1168</v>
       </c>
@@ -6398,11 +6710,14 @@
       <c r="AD94" s="1">
         <v>6200</v>
       </c>
-      <c r="AQ94" s="1">
+      <c r="AO94" s="1">
+        <v>6961</v>
+      </c>
+      <c r="AR94" s="1">
         <v>6669</v>
       </c>
     </row>
-    <row r="95" spans="3:43">
+    <row r="95" spans="3:44">
       <c r="C95" s="1">
         <v>1169</v>
       </c>
@@ -6421,11 +6736,14 @@
       <c r="AD95" s="1">
         <v>6201</v>
       </c>
-      <c r="AQ95" s="1">
+      <c r="AO95" s="1">
+        <v>6962</v>
+      </c>
+      <c r="AR95" s="1">
         <v>6670</v>
       </c>
     </row>
-    <row r="96" spans="3:43">
+    <row r="96" spans="3:44">
       <c r="C96" s="1">
         <v>1170</v>
       </c>
@@ -6441,11 +6759,14 @@
       <c r="AD96" s="1">
         <v>6202</v>
       </c>
-      <c r="AQ96" s="1">
+      <c r="AO96" s="1">
+        <v>6963</v>
+      </c>
+      <c r="AR96" s="1">
         <v>6671</v>
       </c>
     </row>
-    <row r="97" spans="3:43">
+    <row r="97" spans="3:44">
       <c r="C97" s="1">
         <v>1171</v>
       </c>
@@ -6461,11 +6782,14 @@
       <c r="AD97" s="1">
         <v>6203</v>
       </c>
-      <c r="AQ97" s="1">
+      <c r="AO97" s="1">
+        <v>6964</v>
+      </c>
+      <c r="AR97" s="1">
         <v>6672</v>
       </c>
     </row>
-    <row r="98" spans="3:43">
+    <row r="98" spans="3:44">
       <c r="C98" s="1">
         <v>1172</v>
       </c>
@@ -6481,11 +6805,14 @@
       <c r="AD98" s="1">
         <v>6204</v>
       </c>
-      <c r="AQ98" s="1">
+      <c r="AO98" s="1">
+        <v>6965</v>
+      </c>
+      <c r="AR98" s="1">
         <v>6673</v>
       </c>
     </row>
-    <row r="99" spans="3:43">
+    <row r="99" spans="3:44">
       <c r="C99" s="1">
         <v>1173</v>
       </c>
@@ -6501,11 +6828,14 @@
       <c r="AD99" s="1">
         <v>6205</v>
       </c>
-      <c r="AQ99" s="1">
+      <c r="AO99" s="1">
+        <v>6966</v>
+      </c>
+      <c r="AR99" s="1">
         <v>6674</v>
       </c>
     </row>
-    <row r="100" spans="3:43">
+    <row r="100" spans="3:44">
       <c r="C100" s="1">
         <v>1174</v>
       </c>
@@ -6521,11 +6851,14 @@
       <c r="AD100" s="1">
         <v>6206</v>
       </c>
-      <c r="AQ100" s="1">
+      <c r="AO100" s="1">
+        <v>6967</v>
+      </c>
+      <c r="AR100" s="1">
         <v>6675</v>
       </c>
     </row>
-    <row r="101" spans="3:43">
+    <row r="101" spans="3:44">
       <c r="C101" s="1">
         <v>1175</v>
       </c>
@@ -6541,11 +6874,14 @@
       <c r="AD101" s="1">
         <v>6207</v>
       </c>
-      <c r="AQ101" s="1">
+      <c r="AO101" s="1">
+        <v>6968</v>
+      </c>
+      <c r="AR101" s="1">
         <v>6676</v>
       </c>
     </row>
-    <row r="102" spans="3:43">
+    <row r="102" spans="3:44">
       <c r="C102" s="1">
         <v>1176</v>
       </c>
@@ -6561,11 +6897,14 @@
       <c r="AD102" s="1">
         <v>6208</v>
       </c>
-      <c r="AQ102" s="1">
+      <c r="AO102" s="1">
+        <v>6969</v>
+      </c>
+      <c r="AR102" s="1">
         <v>6677</v>
       </c>
     </row>
-    <row r="103" spans="3:43">
+    <row r="103" spans="3:44">
       <c r="C103" s="1">
         <v>1177</v>
       </c>
@@ -6581,11 +6920,14 @@
       <c r="AD103" s="1">
         <v>6209</v>
       </c>
-      <c r="AQ103" s="1">
+      <c r="AO103" s="1">
+        <v>6970</v>
+      </c>
+      <c r="AR103" s="1">
         <v>6678</v>
       </c>
     </row>
-    <row r="104" spans="3:43">
+    <row r="104" spans="3:44">
       <c r="C104" s="1">
         <v>1178</v>
       </c>
@@ -6601,11 +6943,14 @@
       <c r="AD104" s="1">
         <v>6210</v>
       </c>
-      <c r="AQ104" s="1">
+      <c r="AO104" s="1">
+        <v>6971</v>
+      </c>
+      <c r="AR104" s="1">
         <v>6680</v>
       </c>
     </row>
-    <row r="105" spans="3:43">
+    <row r="105" spans="3:44">
       <c r="C105" s="1">
         <v>1179</v>
       </c>
@@ -6621,11 +6966,14 @@
       <c r="AD105" s="1">
         <v>6211</v>
       </c>
-      <c r="AQ105" s="1">
+      <c r="AO105" s="1">
+        <v>6972</v>
+      </c>
+      <c r="AR105" s="1">
         <v>6681</v>
       </c>
     </row>
-    <row r="106" spans="3:43">
+    <row r="106" spans="3:44">
       <c r="C106" s="1">
         <v>1180</v>
       </c>
@@ -6641,11 +6989,14 @@
       <c r="AD106" s="1">
         <v>6212</v>
       </c>
-      <c r="AQ106" s="1">
+      <c r="AO106" s="1">
+        <v>6973</v>
+      </c>
+      <c r="AR106" s="1">
         <v>6682</v>
       </c>
     </row>
-    <row r="107" spans="3:43">
+    <row r="107" spans="3:44">
       <c r="C107" s="1">
         <v>1181</v>
       </c>
@@ -6661,11 +7012,14 @@
       <c r="AD107" s="1">
         <v>6213</v>
       </c>
-      <c r="AQ107" s="1">
+      <c r="AO107" s="1">
+        <v>6974</v>
+      </c>
+      <c r="AR107" s="1">
         <v>6683</v>
       </c>
     </row>
-    <row r="108" spans="3:43">
+    <row r="108" spans="3:44">
       <c r="C108" s="1">
         <v>1182</v>
       </c>
@@ -6681,11 +7035,14 @@
       <c r="AD108" s="1">
         <v>6214</v>
       </c>
-      <c r="AQ108" s="1">
+      <c r="AO108" s="1">
+        <v>6975</v>
+      </c>
+      <c r="AR108" s="1">
         <v>6684</v>
       </c>
     </row>
-    <row r="109" spans="3:43">
+    <row r="109" spans="3:44">
       <c r="C109" s="1">
         <v>1183</v>
       </c>
@@ -6701,11 +7058,14 @@
       <c r="AD109" s="1">
         <v>6215</v>
       </c>
-      <c r="AQ109" s="1">
+      <c r="AO109" s="1">
+        <v>6976</v>
+      </c>
+      <c r="AR109" s="1">
         <v>6685</v>
       </c>
     </row>
-    <row r="110" spans="3:43">
+    <row r="110" spans="3:44">
       <c r="C110" s="1">
         <v>1184</v>
       </c>
@@ -6721,11 +7081,14 @@
       <c r="AD110" s="1">
         <v>6216</v>
       </c>
-      <c r="AQ110" s="1">
+      <c r="AO110" s="1">
+        <v>6977</v>
+      </c>
+      <c r="AR110" s="1">
         <v>6687</v>
       </c>
     </row>
-    <row r="111" spans="3:43">
+    <row r="111" spans="3:44">
       <c r="C111" s="1">
         <v>1185</v>
       </c>
@@ -6741,11 +7104,14 @@
       <c r="AD111" s="1">
         <v>6217</v>
       </c>
-      <c r="AQ111" s="1">
+      <c r="AO111" s="1">
+        <v>6978</v>
+      </c>
+      <c r="AR111" s="1">
         <v>6688</v>
       </c>
     </row>
-    <row r="112" spans="3:43">
+    <row r="112" spans="3:44">
       <c r="C112" s="1">
         <v>1186</v>
       </c>
@@ -6761,11 +7127,14 @@
       <c r="AD112" s="1">
         <v>6218</v>
       </c>
-      <c r="AQ112" s="1">
+      <c r="AO112" s="1">
+        <v>6979</v>
+      </c>
+      <c r="AR112" s="1">
         <v>6726</v>
       </c>
     </row>
-    <row r="113" spans="3:43">
+    <row r="113" spans="3:44">
       <c r="C113" s="1">
         <v>1187</v>
       </c>
@@ -6781,11 +7150,14 @@
       <c r="AD113" s="1">
         <v>6219</v>
       </c>
-      <c r="AQ113" s="1">
+      <c r="AO113" s="1">
+        <v>6980</v>
+      </c>
+      <c r="AR113" s="1">
         <v>6829</v>
       </c>
     </row>
-    <row r="114" spans="3:43">
+    <row r="114" spans="3:44">
       <c r="C114" s="1">
         <v>1188</v>
       </c>
@@ -6801,11 +7173,14 @@
       <c r="AD114" s="1">
         <v>6220</v>
       </c>
-      <c r="AQ114" s="1">
+      <c r="AO114" s="1">
+        <v>6981</v>
+      </c>
+      <c r="AR114" s="1">
         <v>6830</v>
       </c>
     </row>
-    <row r="115" spans="3:43">
+    <row r="115" spans="3:44">
       <c r="C115" s="1">
         <v>1189</v>
       </c>
@@ -6821,11 +7196,14 @@
       <c r="AD115" s="1">
         <v>6221</v>
       </c>
-      <c r="AQ115" s="1">
+      <c r="AO115" s="1">
+        <v>6982</v>
+      </c>
+      <c r="AR115" s="1">
         <v>6831</v>
       </c>
     </row>
-    <row r="116" spans="3:43">
+    <row r="116" spans="3:44">
       <c r="C116" s="1">
         <v>1190</v>
       </c>
@@ -6841,11 +7219,14 @@
       <c r="AD116" s="1">
         <v>6222</v>
       </c>
-      <c r="AQ116" s="1">
+      <c r="AO116" s="1">
+        <v>6983</v>
+      </c>
+      <c r="AR116" s="1">
         <v>6832</v>
       </c>
     </row>
-    <row r="117" spans="3:43">
+    <row r="117" spans="3:44">
       <c r="C117" s="1">
         <v>1191</v>
       </c>
@@ -6861,11 +7242,14 @@
       <c r="AD117" s="1">
         <v>6223</v>
       </c>
-      <c r="AQ117" s="1">
+      <c r="AO117" s="1">
+        <v>6984</v>
+      </c>
+      <c r="AR117" s="1">
         <v>6833</v>
       </c>
     </row>
-    <row r="118" spans="3:43">
+    <row r="118" spans="3:44">
       <c r="C118" s="1">
         <v>1192</v>
       </c>
@@ -6881,11 +7265,14 @@
       <c r="AD118" s="1">
         <v>6224</v>
       </c>
-      <c r="AQ118" s="1">
+      <c r="AO118" s="1">
+        <v>6985</v>
+      </c>
+      <c r="AR118" s="1">
         <v>6834</v>
       </c>
     </row>
-    <row r="119" spans="3:43">
+    <row r="119" spans="3:44">
       <c r="C119" s="1">
         <v>1193</v>
       </c>
@@ -6901,11 +7288,14 @@
       <c r="AD119" s="1">
         <v>6225</v>
       </c>
-      <c r="AQ119" s="1">
+      <c r="AO119" s="1">
+        <v>6986</v>
+      </c>
+      <c r="AR119" s="1">
         <v>6835</v>
       </c>
     </row>
-    <row r="120" spans="3:43">
+    <row r="120" spans="3:44">
       <c r="C120" s="1">
         <v>1194</v>
       </c>
@@ -6921,11 +7311,14 @@
       <c r="AD120" s="1">
         <v>6226</v>
       </c>
-      <c r="AQ120" s="1">
+      <c r="AO120" s="1">
+        <v>6987</v>
+      </c>
+      <c r="AR120" s="1">
         <v>6836</v>
       </c>
     </row>
-    <row r="121" spans="3:43">
+    <row r="121" spans="3:44">
       <c r="C121" s="1">
         <v>1195</v>
       </c>
@@ -6941,11 +7334,14 @@
       <c r="AD121" s="1">
         <v>6227</v>
       </c>
-      <c r="AQ121" s="1">
+      <c r="AO121" s="1">
+        <v>6988</v>
+      </c>
+      <c r="AR121" s="1">
         <v>6837</v>
       </c>
     </row>
-    <row r="122" spans="3:43">
+    <row r="122" spans="3:44">
       <c r="C122" s="1">
         <v>1196</v>
       </c>
@@ -6961,11 +7357,14 @@
       <c r="AD122" s="1">
         <v>6228</v>
       </c>
-      <c r="AQ122" s="1">
+      <c r="AO122" s="1">
+        <v>6989</v>
+      </c>
+      <c r="AR122" s="1">
         <v>6838</v>
       </c>
     </row>
-    <row r="123" spans="3:43">
+    <row r="123" spans="3:44">
       <c r="C123" s="1">
         <v>1197</v>
       </c>
@@ -6981,11 +7380,14 @@
       <c r="AD123" s="1">
         <v>6229</v>
       </c>
-      <c r="AQ123" s="1">
+      <c r="AO123" s="1">
+        <v>6990</v>
+      </c>
+      <c r="AR123" s="1">
         <v>6839</v>
       </c>
     </row>
-    <row r="124" spans="3:43">
+    <row r="124" spans="3:44">
       <c r="C124" s="1">
         <v>1198</v>
       </c>
@@ -7001,11 +7403,14 @@
       <c r="AD124" s="1">
         <v>6230</v>
       </c>
-      <c r="AQ124" s="1">
+      <c r="AO124" s="1">
+        <v>6991</v>
+      </c>
+      <c r="AR124" s="1">
         <v>6840</v>
       </c>
     </row>
-    <row r="125" spans="3:43">
+    <row r="125" spans="3:44">
       <c r="C125" s="1">
         <v>1199</v>
       </c>
@@ -7021,11 +7426,14 @@
       <c r="AD125" s="1">
         <v>6231</v>
       </c>
-      <c r="AQ125" s="1">
+      <c r="AO125" s="1">
+        <v>6992</v>
+      </c>
+      <c r="AR125" s="1">
         <v>6841</v>
       </c>
     </row>
-    <row r="126" spans="3:43">
+    <row r="126" spans="3:44">
       <c r="C126" s="1">
         <v>1200</v>
       </c>
@@ -7041,11 +7449,14 @@
       <c r="AD126" s="1">
         <v>6232</v>
       </c>
-      <c r="AQ126" s="1">
+      <c r="AO126" s="1">
+        <v>6993</v>
+      </c>
+      <c r="AR126" s="1">
         <v>6842</v>
       </c>
     </row>
-    <row r="127" spans="3:43">
+    <row r="127" spans="3:44">
       <c r="C127" s="1">
         <v>1201</v>
       </c>
@@ -7061,11 +7472,14 @@
       <c r="AD127" s="1">
         <v>6233</v>
       </c>
-      <c r="AQ127" s="1">
+      <c r="AO127" s="1">
+        <v>6994</v>
+      </c>
+      <c r="AR127" s="1">
         <v>6843</v>
       </c>
     </row>
-    <row r="128" spans="3:43">
+    <row r="128" spans="3:44">
       <c r="C128" s="1">
         <v>1202</v>
       </c>
@@ -7081,11 +7495,14 @@
       <c r="AD128" s="1">
         <v>6234</v>
       </c>
-      <c r="AQ128" s="1">
+      <c r="AO128" s="1">
+        <v>6995</v>
+      </c>
+      <c r="AR128" s="1">
         <v>6844</v>
       </c>
     </row>
-    <row r="129" spans="3:43">
+    <row r="129" spans="3:44">
       <c r="C129" s="1">
         <v>1203</v>
       </c>
@@ -7101,11 +7518,14 @@
       <c r="AD129" s="1">
         <v>6235</v>
       </c>
-      <c r="AQ129" s="1">
+      <c r="AO129" s="1">
+        <v>6996</v>
+      </c>
+      <c r="AR129" s="1">
         <v>6845</v>
       </c>
     </row>
-    <row r="130" spans="3:43">
+    <row r="130" spans="3:44">
       <c r="C130" s="1">
         <v>1204</v>
       </c>
@@ -7121,11 +7541,14 @@
       <c r="AD130" s="1">
         <v>6236</v>
       </c>
-      <c r="AQ130" s="1">
+      <c r="AO130" s="1">
+        <v>6997</v>
+      </c>
+      <c r="AR130" s="1">
         <v>6846</v>
       </c>
     </row>
-    <row r="131" spans="3:43">
+    <row r="131" spans="3:44">
       <c r="C131" s="1">
         <v>1205</v>
       </c>
@@ -7141,11 +7564,14 @@
       <c r="AD131" s="1">
         <v>6237</v>
       </c>
-      <c r="AQ131" s="1">
+      <c r="AO131" s="1">
+        <v>6998</v>
+      </c>
+      <c r="AR131" s="1">
         <v>6847</v>
       </c>
     </row>
-    <row r="132" spans="3:43">
+    <row r="132" spans="3:44">
       <c r="C132" s="1">
         <v>1206</v>
       </c>
@@ -7158,11 +7584,14 @@
       <c r="AD132" s="1">
         <v>6238</v>
       </c>
-      <c r="AQ132" s="1">
+      <c r="AO132" s="1">
+        <v>6999</v>
+      </c>
+      <c r="AR132" s="1">
         <v>6848</v>
       </c>
     </row>
-    <row r="133" spans="3:43">
+    <row r="133" spans="3:44">
       <c r="C133" s="1">
         <v>1207</v>
       </c>
@@ -7175,11 +7604,14 @@
       <c r="AD133" s="1">
         <v>6239</v>
       </c>
-      <c r="AQ133" s="1">
+      <c r="AO133" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AR133" s="1">
         <v>6849</v>
       </c>
     </row>
-    <row r="134" spans="3:43">
+    <row r="134" spans="3:44">
       <c r="C134" s="1">
         <v>1208</v>
       </c>
@@ -7192,11 +7624,14 @@
       <c r="AD134" s="1">
         <v>6265</v>
       </c>
-      <c r="AQ134" s="1">
+      <c r="AO134" s="1">
+        <v>7001</v>
+      </c>
+      <c r="AR134" s="1">
         <v>6850</v>
       </c>
     </row>
-    <row r="135" spans="3:43">
+    <row r="135" spans="3:44">
       <c r="C135" s="1">
         <v>1209</v>
       </c>
@@ -7209,11 +7644,14 @@
       <c r="AD135" s="1">
         <v>6266</v>
       </c>
-      <c r="AQ135" s="1">
+      <c r="AO135" s="1">
+        <v>7002</v>
+      </c>
+      <c r="AR135" s="1">
         <v>6851</v>
       </c>
     </row>
-    <row r="136" spans="3:43">
+    <row r="136" spans="3:44">
       <c r="C136" s="1">
         <v>1210</v>
       </c>
@@ -7226,11 +7664,14 @@
       <c r="AD136" s="1">
         <v>6267</v>
       </c>
-      <c r="AQ136" s="1">
+      <c r="AO136" s="1">
+        <v>7003</v>
+      </c>
+      <c r="AR136" s="1">
         <v>6852</v>
       </c>
     </row>
-    <row r="137" spans="3:43">
+    <row r="137" spans="3:44">
       <c r="C137" s="1">
         <v>1211</v>
       </c>
@@ -7243,11 +7684,14 @@
       <c r="AD137" s="1">
         <v>6268</v>
       </c>
-      <c r="AQ137" s="1">
+      <c r="AO137" s="1">
+        <v>7004</v>
+      </c>
+      <c r="AR137" s="1">
         <v>6853</v>
       </c>
     </row>
-    <row r="138" spans="3:43">
+    <row r="138" spans="3:44">
       <c r="C138" s="1">
         <v>1212</v>
       </c>
@@ -7260,11 +7704,14 @@
       <c r="AD138" s="1">
         <v>6269</v>
       </c>
-      <c r="AQ138" s="1">
+      <c r="AO138" s="1">
+        <v>7005</v>
+      </c>
+      <c r="AR138" s="1">
         <v>6854</v>
       </c>
     </row>
-    <row r="139" spans="3:43">
+    <row r="139" spans="3:44">
       <c r="C139" s="1">
         <v>1213</v>
       </c>
@@ -7277,11 +7724,14 @@
       <c r="AD139" s="1">
         <v>6270</v>
       </c>
-      <c r="AQ139" s="1">
+      <c r="AO139" s="1">
+        <v>7006</v>
+      </c>
+      <c r="AR139" s="1">
         <v>6855</v>
       </c>
     </row>
-    <row r="140" spans="3:43">
+    <row r="140" spans="3:44">
       <c r="C140" s="1">
         <v>1214</v>
       </c>
@@ -7294,11 +7744,14 @@
       <c r="AD140" s="1">
         <v>6271</v>
       </c>
-      <c r="AQ140" s="1">
+      <c r="AO140" s="1">
+        <v>7007</v>
+      </c>
+      <c r="AR140" s="1">
         <v>6856</v>
       </c>
     </row>
-    <row r="141" spans="3:43">
+    <row r="141" spans="3:44">
       <c r="C141" s="1">
         <v>1215</v>
       </c>
@@ -7311,11 +7764,14 @@
       <c r="AD141" s="1">
         <v>6272</v>
       </c>
-      <c r="AQ141" s="1">
+      <c r="AO141" s="1">
+        <v>7008</v>
+      </c>
+      <c r="AR141" s="1">
         <v>6857</v>
       </c>
     </row>
-    <row r="142" spans="3:43">
+    <row r="142" spans="3:44">
       <c r="C142" s="1">
         <v>1216</v>
       </c>
@@ -7328,11 +7784,14 @@
       <c r="AD142" s="1">
         <v>6273</v>
       </c>
-      <c r="AQ142" s="1">
+      <c r="AO142" s="1">
+        <v>7009</v>
+      </c>
+      <c r="AR142" s="1">
         <v>6858</v>
       </c>
     </row>
-    <row r="143" spans="3:43">
+    <row r="143" spans="3:44">
       <c r="C143" s="1">
         <v>1217</v>
       </c>
@@ -7345,11 +7804,14 @@
       <c r="AD143" s="1">
         <v>6274</v>
       </c>
-      <c r="AQ143" s="1">
+      <c r="AO143" s="1">
+        <v>7010</v>
+      </c>
+      <c r="AR143" s="1">
         <v>6859</v>
       </c>
     </row>
-    <row r="144" spans="3:43">
+    <row r="144" spans="3:44">
       <c r="C144" s="1">
         <v>1218</v>
       </c>
@@ -7362,11 +7824,14 @@
       <c r="AD144" s="1">
         <v>6275</v>
       </c>
-      <c r="AQ144" s="1">
+      <c r="AO144" s="1">
+        <v>7011</v>
+      </c>
+      <c r="AR144" s="1">
         <v>6860</v>
       </c>
     </row>
-    <row r="145" spans="3:43">
+    <row r="145" spans="3:44">
       <c r="C145" s="1">
         <v>1219</v>
       </c>
@@ -7379,11 +7844,11 @@
       <c r="AD145" s="1">
         <v>6276</v>
       </c>
-      <c r="AQ145" s="1">
+      <c r="AR145" s="1">
         <v>6861</v>
       </c>
     </row>
-    <row r="146" spans="3:43">
+    <row r="146" spans="3:44">
       <c r="C146" s="1">
         <v>1220</v>
       </c>
@@ -7396,11 +7861,11 @@
       <c r="AD146" s="1">
         <v>6277</v>
       </c>
-      <c r="AQ146" s="1">
+      <c r="AR146" s="1">
         <v>6862</v>
       </c>
     </row>
-    <row r="147" spans="3:43">
+    <row r="147" spans="3:44">
       <c r="C147" s="1">
         <v>1221</v>
       </c>
@@ -7413,11 +7878,11 @@
       <c r="AD147" s="1">
         <v>6278</v>
       </c>
-      <c r="AQ147" s="1">
+      <c r="AR147" s="1">
         <v>6863</v>
       </c>
     </row>
-    <row r="148" spans="3:43">
+    <row r="148" spans="3:44">
       <c r="C148" s="1">
         <v>1222</v>
       </c>
@@ -7430,11 +7895,11 @@
       <c r="AD148" s="1">
         <v>6279</v>
       </c>
-      <c r="AQ148" s="1">
+      <c r="AR148" s="1">
         <v>6864</v>
       </c>
     </row>
-    <row r="149" spans="3:43">
+    <row r="149" spans="3:44">
       <c r="C149" s="1">
         <v>1223</v>
       </c>
@@ -7447,11 +7912,11 @@
       <c r="AD149" s="1">
         <v>6280</v>
       </c>
-      <c r="AQ149" s="1">
+      <c r="AR149" s="1">
         <v>6865</v>
       </c>
     </row>
-    <row r="150" spans="3:43">
+    <row r="150" spans="3:44">
       <c r="C150" s="1">
         <v>1224</v>
       </c>
@@ -7464,11 +7929,11 @@
       <c r="AD150" s="1">
         <v>6281</v>
       </c>
-      <c r="AQ150" s="1">
+      <c r="AR150" s="1">
         <v>6866</v>
       </c>
     </row>
-    <row r="151" spans="3:43">
+    <row r="151" spans="3:44">
       <c r="C151" s="1">
         <v>1225</v>
       </c>
@@ -7481,11 +7946,11 @@
       <c r="AD151" s="1">
         <v>6282</v>
       </c>
-      <c r="AQ151" s="1">
+      <c r="AR151" s="1">
         <v>6867</v>
       </c>
     </row>
-    <row r="152" spans="3:43">
+    <row r="152" spans="3:44">
       <c r="C152" s="1">
         <v>1226</v>
       </c>
@@ -7498,11 +7963,11 @@
       <c r="AD152" s="1">
         <v>6283</v>
       </c>
-      <c r="AQ152" s="1">
+      <c r="AR152" s="1">
         <v>6868</v>
       </c>
     </row>
-    <row r="153" spans="3:43">
+    <row r="153" spans="3:44">
       <c r="C153" s="1">
         <v>1227</v>
       </c>
@@ -7515,11 +7980,11 @@
       <c r="AD153" s="1">
         <v>6284</v>
       </c>
-      <c r="AQ153" s="1">
+      <c r="AR153" s="1">
         <v>6869</v>
       </c>
     </row>
-    <row r="154" spans="3:43">
+    <row r="154" spans="3:44">
       <c r="C154" s="1">
         <v>1228</v>
       </c>
@@ -7532,11 +7997,11 @@
       <c r="AD154" s="1">
         <v>6285</v>
       </c>
-      <c r="AQ154" s="1">
+      <c r="AR154" s="1">
         <v>6870</v>
       </c>
     </row>
-    <row r="155" spans="3:43">
+    <row r="155" spans="3:44">
       <c r="C155" s="1">
         <v>1229</v>
       </c>
@@ -7549,11 +8014,11 @@
       <c r="AD155" s="1">
         <v>6286</v>
       </c>
-      <c r="AQ155" s="1">
+      <c r="AR155" s="1">
         <v>6871</v>
       </c>
     </row>
-    <row r="156" spans="3:43">
+    <row r="156" spans="3:44">
       <c r="C156" s="1">
         <v>1230</v>
       </c>
@@ -7566,11 +8031,11 @@
       <c r="AD156" s="1">
         <v>6287</v>
       </c>
-      <c r="AQ156" s="1">
+      <c r="AR156" s="1">
         <v>6872</v>
       </c>
     </row>
-    <row r="157" spans="3:43">
+    <row r="157" spans="3:44">
       <c r="C157" s="1">
         <v>1231</v>
       </c>
@@ -7583,11 +8048,11 @@
       <c r="AD157" s="1">
         <v>6288</v>
       </c>
-      <c r="AQ157" s="1">
+      <c r="AR157" s="1">
         <v>6873</v>
       </c>
     </row>
-    <row r="158" spans="3:43">
+    <row r="158" spans="3:44">
       <c r="C158" s="1">
         <v>1232</v>
       </c>
@@ -7600,11 +8065,11 @@
       <c r="AD158" s="1">
         <v>6289</v>
       </c>
-      <c r="AQ158" s="1">
+      <c r="AR158" s="1">
         <v>6874</v>
       </c>
     </row>
-    <row r="159" spans="3:43">
+    <row r="159" spans="3:44">
       <c r="C159" s="1">
         <v>1233</v>
       </c>
@@ -7617,11 +8082,11 @@
       <c r="AD159" s="1">
         <v>6290</v>
       </c>
-      <c r="AQ159" s="1">
+      <c r="AR159" s="1">
         <v>6875</v>
       </c>
     </row>
-    <row r="160" spans="3:43">
+    <row r="160" spans="3:44">
       <c r="C160" s="1">
         <v>1234</v>
       </c>
@@ -7634,11 +8099,11 @@
       <c r="AD160" s="1">
         <v>6291</v>
       </c>
-      <c r="AQ160" s="1">
+      <c r="AR160" s="1">
         <v>6876</v>
       </c>
     </row>
-    <row r="161" spans="3:43">
+    <row r="161" spans="3:44">
       <c r="C161" s="1">
         <v>1235</v>
       </c>
@@ -7651,11 +8116,11 @@
       <c r="AD161" s="1">
         <v>6292</v>
       </c>
-      <c r="AQ161" s="1">
+      <c r="AR161" s="1">
         <v>6877</v>
       </c>
     </row>
-    <row r="162" spans="3:43">
+    <row r="162" spans="3:44">
       <c r="C162" s="1">
         <v>1236</v>
       </c>
@@ -7668,11 +8133,11 @@
       <c r="AD162" s="1">
         <v>6293</v>
       </c>
-      <c r="AQ162" s="1">
+      <c r="AR162" s="1">
         <v>6878</v>
       </c>
     </row>
-    <row r="163" spans="3:43">
+    <row r="163" spans="3:44">
       <c r="C163" s="1">
         <v>1237</v>
       </c>
@@ -7685,11 +8150,11 @@
       <c r="AD163" s="1">
         <v>6294</v>
       </c>
-      <c r="AQ163" s="1">
+      <c r="AR163" s="1">
         <v>6879</v>
       </c>
     </row>
-    <row r="164" spans="3:43">
+    <row r="164" spans="3:44">
       <c r="C164" s="1">
         <v>1238</v>
       </c>
@@ -7702,11 +8167,11 @@
       <c r="AD164" s="1">
         <v>6295</v>
       </c>
-      <c r="AQ164" s="1">
+      <c r="AR164" s="1">
         <v>6880</v>
       </c>
     </row>
-    <row r="165" spans="3:43">
+    <row r="165" spans="3:44">
       <c r="C165" s="1">
         <v>1239</v>
       </c>
@@ -7719,11 +8184,11 @@
       <c r="AD165" s="1">
         <v>6296</v>
       </c>
-      <c r="AQ165" s="1">
+      <c r="AR165" s="1">
         <v>6881</v>
       </c>
     </row>
-    <row r="166" spans="3:43">
+    <row r="166" spans="3:44">
       <c r="C166" s="1">
         <v>1240</v>
       </c>
@@ -7736,11 +8201,11 @@
       <c r="AD166" s="1">
         <v>6297</v>
       </c>
-      <c r="AQ166" s="1">
+      <c r="AR166" s="1">
         <v>6882</v>
       </c>
     </row>
-    <row r="167" spans="3:43">
+    <row r="167" spans="3:44">
       <c r="C167" s="1">
         <v>1241</v>
       </c>
@@ -7753,11 +8218,11 @@
       <c r="AD167" s="1">
         <v>6298</v>
       </c>
-      <c r="AQ167" s="1">
+      <c r="AR167" s="1">
         <v>6883</v>
       </c>
     </row>
-    <row r="168" spans="3:43">
+    <row r="168" spans="3:44">
       <c r="C168" s="1">
         <v>1242</v>
       </c>
@@ -7770,11 +8235,11 @@
       <c r="AD168" s="1">
         <v>6299</v>
       </c>
-      <c r="AQ168" s="1">
+      <c r="AR168" s="1">
         <v>6884</v>
       </c>
     </row>
-    <row r="169" spans="3:43">
+    <row r="169" spans="3:44">
       <c r="C169" s="1">
         <v>1243</v>
       </c>
@@ -7787,11 +8252,11 @@
       <c r="AD169" s="1">
         <v>6300</v>
       </c>
-      <c r="AQ169" s="1">
+      <c r="AR169" s="1">
         <v>6885</v>
       </c>
     </row>
-    <row r="170" spans="3:43">
+    <row r="170" spans="3:44">
       <c r="C170" s="1">
         <v>1244</v>
       </c>
@@ -7801,11 +8266,11 @@
       <c r="W170" s="1">
         <v>3225</v>
       </c>
-      <c r="AQ170" s="1">
+      <c r="AR170" s="1">
         <v>6886</v>
       </c>
     </row>
-    <row r="171" spans="3:43">
+    <row r="171" spans="3:44">
       <c r="C171" s="1">
         <v>1245</v>
       </c>
@@ -7815,11 +8280,11 @@
       <c r="W171" s="1">
         <v>3227</v>
       </c>
-      <c r="AQ171" s="1">
+      <c r="AR171" s="1">
         <v>6887</v>
       </c>
     </row>
-    <row r="172" spans="3:43">
+    <row r="172" spans="3:44">
       <c r="C172" s="1">
         <v>1246</v>
       </c>
@@ -7829,11 +8294,11 @@
       <c r="W172" s="1">
         <v>3228</v>
       </c>
-      <c r="AQ172" s="1">
+      <c r="AR172" s="1">
         <v>6888</v>
       </c>
     </row>
-    <row r="173" spans="3:43">
+    <row r="173" spans="3:44">
       <c r="C173" s="1">
         <v>1247</v>
       </c>
@@ -7843,11 +8308,11 @@
       <c r="W173" s="1">
         <v>3229</v>
       </c>
-      <c r="AQ173" s="1">
+      <c r="AR173" s="1">
         <v>6889</v>
       </c>
     </row>
-    <row r="174" spans="3:43">
+    <row r="174" spans="3:44">
       <c r="C174" s="1">
         <v>1248</v>
       </c>
@@ -7857,11 +8322,11 @@
       <c r="W174" s="1">
         <v>3230</v>
       </c>
-      <c r="AQ174" s="1">
+      <c r="AR174" s="1">
         <v>6890</v>
       </c>
     </row>
-    <row r="175" spans="3:43">
+    <row r="175" spans="3:44">
       <c r="C175" s="1">
         <v>1249</v>
       </c>
@@ -7871,11 +8336,11 @@
       <c r="W175" s="1">
         <v>3231</v>
       </c>
-      <c r="AQ175" s="1">
+      <c r="AR175" s="1">
         <v>6891</v>
       </c>
     </row>
-    <row r="176" spans="3:43">
+    <row r="176" spans="3:44">
       <c r="C176" s="1">
         <v>1250</v>
       </c>
@@ -7885,11 +8350,11 @@
       <c r="W176" s="1">
         <v>3232</v>
       </c>
-      <c r="AQ176" s="1">
+      <c r="AR176" s="1">
         <v>6892</v>
       </c>
     </row>
-    <row r="177" spans="3:43">
+    <row r="177" spans="3:44">
       <c r="C177" s="1">
         <v>1251</v>
       </c>
@@ -7899,11 +8364,11 @@
       <c r="W177" s="1">
         <v>3233</v>
       </c>
-      <c r="AQ177" s="1">
+      <c r="AR177" s="1">
         <v>6893</v>
       </c>
     </row>
-    <row r="178" spans="3:43">
+    <row r="178" spans="3:44">
       <c r="C178" s="1">
         <v>1252</v>
       </c>
@@ -7913,11 +8378,11 @@
       <c r="W178" s="1">
         <v>3234</v>
       </c>
-      <c r="AQ178" s="1">
+      <c r="AR178" s="1">
         <v>6894</v>
       </c>
     </row>
-    <row r="179" spans="3:43">
+    <row r="179" spans="3:44">
       <c r="C179" s="1">
         <v>1253</v>
       </c>
@@ -7927,716 +8392,716 @@
       <c r="W179" s="1">
         <v>3235</v>
       </c>
-      <c r="AQ179" s="1">
+      <c r="AR179" s="1">
         <v>6895</v>
       </c>
     </row>
-    <row r="180" spans="3:43">
+    <row r="180" spans="3:44">
       <c r="C180" s="1">
         <v>1254</v>
       </c>
       <c r="U180" s="1">
         <v>6483</v>
       </c>
-      <c r="AQ180" s="1">
+      <c r="AR180" s="1">
         <v>6896</v>
       </c>
     </row>
-    <row r="181" spans="3:43">
+    <row r="181" spans="3:44">
       <c r="C181" s="1">
         <v>1255</v>
       </c>
       <c r="U181" s="1">
         <v>6484</v>
       </c>
-      <c r="AQ181" s="1">
+      <c r="AR181" s="1">
         <v>6897</v>
       </c>
     </row>
-    <row r="182" spans="3:43">
+    <row r="182" spans="3:44">
       <c r="C182" s="1">
         <v>1256</v>
       </c>
       <c r="U182" s="1">
         <v>6485</v>
       </c>
-      <c r="AQ182" s="1">
+      <c r="AR182" s="1">
         <v>6898</v>
       </c>
     </row>
-    <row r="183" spans="3:43">
+    <row r="183" spans="3:44">
       <c r="C183" s="1">
         <v>1257</v>
       </c>
       <c r="U183" s="1">
         <v>6486</v>
       </c>
-      <c r="AQ183" s="1">
+      <c r="AR183" s="1">
         <v>6899</v>
       </c>
     </row>
-    <row r="184" spans="3:43">
+    <row r="184" spans="3:44">
       <c r="C184" s="1">
         <v>1258</v>
       </c>
       <c r="U184" s="1">
         <v>6487</v>
       </c>
-      <c r="AQ184" s="1">
+      <c r="AR184" s="1">
         <v>6900</v>
       </c>
     </row>
-    <row r="185" spans="3:43">
+    <row r="185" spans="3:44">
       <c r="C185" s="1">
         <v>1259</v>
       </c>
       <c r="U185" s="1">
         <v>6488</v>
       </c>
-      <c r="AQ185" s="1">
+      <c r="AR185" s="1">
         <v>6901</v>
       </c>
     </row>
-    <row r="186" spans="3:43">
+    <row r="186" spans="3:44">
       <c r="C186" s="1">
         <v>1260</v>
       </c>
       <c r="U186" s="1">
         <v>6489</v>
       </c>
-      <c r="AQ186" s="1">
+      <c r="AR186" s="1">
         <v>6902</v>
       </c>
     </row>
-    <row r="187" spans="3:43">
+    <row r="187" spans="3:44">
       <c r="C187" s="1">
         <v>1261</v>
       </c>
       <c r="U187" s="1">
         <v>6490</v>
       </c>
-      <c r="AQ187" s="1">
+      <c r="AR187" s="1">
         <v>6903</v>
       </c>
     </row>
-    <row r="188" spans="3:43">
+    <row r="188" spans="3:44">
       <c r="C188" s="1">
         <v>1262</v>
       </c>
       <c r="U188" s="1">
         <v>6491</v>
       </c>
-      <c r="AQ188" s="1">
+      <c r="AR188" s="1">
         <v>6904</v>
       </c>
     </row>
-    <row r="189" spans="3:43">
+    <row r="189" spans="3:44">
       <c r="C189" s="1">
         <v>1263</v>
       </c>
       <c r="U189" s="1">
         <v>6492</v>
       </c>
-      <c r="AQ189" s="1">
+      <c r="AR189" s="1">
         <v>6905</v>
       </c>
     </row>
-    <row r="190" spans="3:43">
+    <row r="190" spans="3:44">
       <c r="U190" s="1">
         <v>6493</v>
       </c>
-      <c r="AQ190" s="1">
+      <c r="AR190" s="1">
         <v>6906</v>
       </c>
     </row>
-    <row r="191" spans="3:43">
+    <row r="191" spans="3:44">
       <c r="U191" s="1">
         <v>6494</v>
       </c>
-      <c r="AQ191" s="1">
+      <c r="AR191" s="1">
         <v>6907</v>
       </c>
     </row>
-    <row r="192" spans="3:43">
+    <row r="192" spans="3:44">
       <c r="U192" s="1">
         <v>6495</v>
       </c>
-      <c r="AQ192" s="1">
+      <c r="AR192" s="1">
         <v>6908</v>
       </c>
     </row>
-    <row r="193" spans="21:43">
+    <row r="193" spans="21:44">
       <c r="U193" s="1">
         <v>6496</v>
       </c>
-      <c r="AQ193" s="1">
+      <c r="AR193" s="1">
         <v>6909</v>
       </c>
     </row>
-    <row r="194" spans="21:43">
+    <row r="194" spans="21:44">
       <c r="U194" s="1">
         <v>6497</v>
       </c>
-      <c r="AQ194" s="1">
+      <c r="AR194" s="1">
         <v>6910</v>
       </c>
     </row>
-    <row r="195" spans="21:43">
+    <row r="195" spans="21:44">
       <c r="U195" s="1">
         <v>6498</v>
       </c>
-      <c r="AQ195" s="1">
+      <c r="AR195" s="1">
         <v>6911</v>
       </c>
     </row>
-    <row r="196" spans="21:43">
+    <row r="196" spans="21:44">
       <c r="U196" s="1">
         <v>6499</v>
       </c>
-      <c r="AQ196" s="1">
+      <c r="AR196" s="1">
         <v>6912</v>
       </c>
     </row>
-    <row r="197" spans="21:43">
+    <row r="197" spans="21:44">
       <c r="U197" s="1">
         <v>6500</v>
       </c>
-      <c r="AQ197" s="1">
+      <c r="AR197" s="1">
         <v>6913</v>
       </c>
     </row>
-    <row r="198" spans="21:43">
+    <row r="198" spans="21:44">
       <c r="U198" s="1">
         <v>6501</v>
       </c>
-      <c r="AQ198" s="1">
+      <c r="AR198" s="1">
         <v>6914</v>
       </c>
     </row>
-    <row r="199" spans="21:43">
+    <row r="199" spans="21:44">
       <c r="U199" s="1">
         <v>6502</v>
       </c>
-      <c r="AQ199" s="1">
+      <c r="AR199" s="1">
         <v>6915</v>
       </c>
     </row>
-    <row r="200" spans="21:43">
+    <row r="200" spans="21:44">
       <c r="U200" s="1">
         <v>6503</v>
       </c>
-      <c r="AQ200" s="1">
+      <c r="AR200" s="1">
         <v>6916</v>
       </c>
     </row>
-    <row r="201" spans="21:43">
+    <row r="201" spans="21:44">
       <c r="U201" s="1">
         <v>6504</v>
       </c>
-      <c r="AQ201" s="1">
+      <c r="AR201" s="1">
         <v>6917</v>
       </c>
     </row>
-    <row r="202" spans="21:43">
+    <row r="202" spans="21:44">
       <c r="U202" s="1">
         <v>6505</v>
       </c>
-      <c r="AQ202" s="1">
+      <c r="AR202" s="1">
         <v>6918</v>
       </c>
     </row>
-    <row r="203" spans="21:43">
+    <row r="203" spans="21:44">
       <c r="U203" s="1">
         <v>6506</v>
       </c>
-      <c r="AQ203" s="1">
+      <c r="AR203" s="1">
         <v>6919</v>
       </c>
     </row>
-    <row r="204" spans="21:43">
+    <row r="204" spans="21:44">
       <c r="U204" s="1">
         <v>6507</v>
       </c>
-      <c r="AQ204" s="1">
+      <c r="AR204" s="1">
         <v>6920</v>
       </c>
     </row>
-    <row r="205" spans="21:43">
+    <row r="205" spans="21:44">
       <c r="U205" s="1">
         <v>6508</v>
       </c>
-      <c r="AQ205" s="1">
+      <c r="AR205" s="1">
         <v>6921</v>
       </c>
     </row>
-    <row r="206" spans="21:43">
+    <row r="206" spans="21:44">
       <c r="U206" s="1">
         <v>6509</v>
       </c>
-      <c r="AQ206" s="1">
+      <c r="AR206" s="1">
         <v>6922</v>
       </c>
     </row>
-    <row r="207" spans="21:43">
+    <row r="207" spans="21:44">
       <c r="U207" s="1">
         <v>6510</v>
       </c>
-      <c r="AQ207" s="1">
+      <c r="AR207" s="1">
         <v>6923</v>
       </c>
     </row>
-    <row r="208" spans="21:43">
+    <row r="208" spans="21:44">
       <c r="U208" s="1">
         <v>6511</v>
       </c>
-      <c r="AQ208" s="1">
+      <c r="AR208" s="1">
         <v>6924</v>
       </c>
     </row>
-    <row r="209" spans="21:43">
+    <row r="209" spans="21:44">
       <c r="U209" s="1">
         <v>6512</v>
       </c>
-      <c r="AQ209" s="1">
+      <c r="AR209" s="1">
         <v>6925</v>
       </c>
     </row>
-    <row r="210" spans="21:43">
+    <row r="210" spans="21:44">
       <c r="U210" s="1">
         <v>7016</v>
       </c>
-      <c r="AQ210" s="1">
+      <c r="AR210" s="1">
         <v>6926</v>
       </c>
     </row>
-    <row r="211" spans="21:43">
-      <c r="AQ211" s="1">
+    <row r="211" spans="21:44">
+      <c r="AR211" s="1">
         <v>6927</v>
       </c>
     </row>
-    <row r="212" spans="21:43">
-      <c r="AQ212" s="1">
+    <row r="212" spans="21:44">
+      <c r="AR212" s="1">
         <v>6928</v>
       </c>
     </row>
-    <row r="213" spans="21:43">
-      <c r="AQ213" s="1">
+    <row r="213" spans="21:44">
+      <c r="AR213" s="1">
         <v>6929</v>
       </c>
     </row>
-    <row r="214" spans="21:43">
-      <c r="AQ214" s="1">
+    <row r="214" spans="21:44">
+      <c r="AR214" s="1">
         <v>6930</v>
       </c>
     </row>
-    <row r="215" spans="21:43">
-      <c r="AQ215" s="1">
+    <row r="215" spans="21:44">
+      <c r="AR215" s="1">
         <v>6931</v>
       </c>
     </row>
-    <row r="216" spans="21:43">
-      <c r="AQ216" s="1">
+    <row r="216" spans="21:44">
+      <c r="AR216" s="1">
         <v>6932</v>
       </c>
     </row>
-    <row r="217" spans="21:43">
-      <c r="AQ217" s="1">
+    <row r="217" spans="21:44">
+      <c r="AR217" s="1">
         <v>6933</v>
       </c>
     </row>
-    <row r="218" spans="21:43">
-      <c r="AQ218" s="1">
+    <row r="218" spans="21:44">
+      <c r="AR218" s="1">
         <v>6934</v>
       </c>
     </row>
-    <row r="219" spans="21:43">
-      <c r="AQ219" s="1">
+    <row r="219" spans="21:44">
+      <c r="AR219" s="1">
         <v>6935</v>
       </c>
     </row>
-    <row r="220" spans="21:43">
-      <c r="AQ220" s="1">
+    <row r="220" spans="21:44">
+      <c r="AR220" s="1">
         <v>6936</v>
       </c>
     </row>
-    <row r="221" spans="21:43">
-      <c r="AQ221" s="1">
+    <row r="221" spans="21:44">
+      <c r="AR221" s="1">
         <v>6937</v>
       </c>
     </row>
-    <row r="222" spans="21:43">
-      <c r="AQ222" s="1">
+    <row r="222" spans="21:44">
+      <c r="AR222" s="1">
         <v>6938</v>
       </c>
     </row>
-    <row r="223" spans="21:43">
-      <c r="AQ223" s="1">
+    <row r="223" spans="21:44">
+      <c r="AR223" s="1">
         <v>6939</v>
       </c>
     </row>
-    <row r="224" spans="21:43">
-      <c r="AQ224" s="1">
+    <row r="224" spans="21:44">
+      <c r="AR224" s="1">
         <v>6940</v>
       </c>
     </row>
-    <row r="225" spans="43:43">
-      <c r="AQ225" s="1">
+    <row r="225" spans="44:44">
+      <c r="AR225" s="1">
         <v>6941</v>
       </c>
     </row>
-    <row r="226" spans="43:43">
-      <c r="AQ226" s="1">
+    <row r="226" spans="44:44">
+      <c r="AR226" s="1">
         <v>6942</v>
       </c>
     </row>
-    <row r="227" spans="43:43">
-      <c r="AQ227" s="1">
+    <row r="227" spans="44:44">
+      <c r="AR227" s="1">
         <v>6943</v>
       </c>
     </row>
-    <row r="228" spans="43:43">
-      <c r="AQ228" s="1">
+    <row r="228" spans="44:44">
+      <c r="AR228" s="1">
         <v>6944</v>
       </c>
     </row>
-    <row r="229" spans="43:43">
-      <c r="AQ229" s="1">
+    <row r="229" spans="44:44">
+      <c r="AR229" s="1">
         <v>6945</v>
       </c>
     </row>
-    <row r="230" spans="43:43">
-      <c r="AQ230" s="1">
+    <row r="230" spans="44:44">
+      <c r="AR230" s="1">
         <v>6946</v>
       </c>
     </row>
-    <row r="231" spans="43:43">
-      <c r="AQ231" s="1">
+    <row r="231" spans="44:44">
+      <c r="AR231" s="1">
         <v>6947</v>
       </c>
     </row>
-    <row r="232" spans="43:43">
-      <c r="AQ232" s="1">
+    <row r="232" spans="44:44">
+      <c r="AR232" s="1">
         <v>6948</v>
       </c>
     </row>
-    <row r="233" spans="43:43">
-      <c r="AQ233" s="1">
+    <row r="233" spans="44:44">
+      <c r="AR233" s="1">
         <v>6949</v>
       </c>
     </row>
-    <row r="234" spans="43:43">
-      <c r="AQ234" s="1">
+    <row r="234" spans="44:44">
+      <c r="AR234" s="1">
         <v>6950</v>
       </c>
     </row>
-    <row r="235" spans="43:43">
-      <c r="AQ235" s="1">
+    <row r="235" spans="44:44">
+      <c r="AR235" s="1">
         <v>6951</v>
       </c>
     </row>
-    <row r="236" spans="43:43">
-      <c r="AQ236" s="1">
+    <row r="236" spans="44:44">
+      <c r="AR236" s="1">
         <v>6952</v>
       </c>
     </row>
-    <row r="237" spans="43:43">
-      <c r="AQ237" s="1">
+    <row r="237" spans="44:44">
+      <c r="AR237" s="1">
         <v>6953</v>
       </c>
     </row>
-    <row r="238" spans="43:43">
-      <c r="AQ238" s="1">
+    <row r="238" spans="44:44">
+      <c r="AR238" s="1">
         <v>6954</v>
       </c>
     </row>
-    <row r="239" spans="43:43">
-      <c r="AQ239" s="1">
+    <row r="239" spans="44:44">
+      <c r="AR239" s="1">
         <v>6955</v>
       </c>
     </row>
-    <row r="240" spans="43:43">
-      <c r="AQ240" s="1">
+    <row r="240" spans="44:44">
+      <c r="AR240" s="1">
         <v>6956</v>
       </c>
     </row>
-    <row r="241" spans="43:43">
-      <c r="AQ241" s="1">
+    <row r="241" spans="44:44">
+      <c r="AR241" s="1">
         <v>6957</v>
       </c>
     </row>
-    <row r="242" spans="43:43">
-      <c r="AQ242" s="1">
+    <row r="242" spans="44:44">
+      <c r="AR242" s="1">
         <v>6958</v>
       </c>
     </row>
-    <row r="243" spans="43:43">
-      <c r="AQ243" s="1">
+    <row r="243" spans="44:44">
+      <c r="AR243" s="1">
         <v>6959</v>
       </c>
     </row>
-    <row r="244" spans="43:43">
-      <c r="AQ244" s="1">
+    <row r="244" spans="44:44">
+      <c r="AR244" s="1">
         <v>6960</v>
       </c>
     </row>
-    <row r="245" spans="43:43">
-      <c r="AQ245" s="1">
+    <row r="245" spans="44:44">
+      <c r="AR245" s="1">
         <v>6961</v>
       </c>
     </row>
-    <row r="246" spans="43:43">
-      <c r="AQ246" s="1">
+    <row r="246" spans="44:44">
+      <c r="AR246" s="1">
         <v>6962</v>
       </c>
     </row>
-    <row r="247" spans="43:43">
-      <c r="AQ247" s="1">
+    <row r="247" spans="44:44">
+      <c r="AR247" s="1">
         <v>6963</v>
       </c>
     </row>
-    <row r="248" spans="43:43">
-      <c r="AQ248" s="1">
+    <row r="248" spans="44:44">
+      <c r="AR248" s="1">
         <v>6964</v>
       </c>
     </row>
-    <row r="249" spans="43:43">
-      <c r="AQ249" s="1">
+    <row r="249" spans="44:44">
+      <c r="AR249" s="1">
         <v>6965</v>
       </c>
     </row>
-    <row r="250" spans="43:43">
-      <c r="AQ250" s="1">
+    <row r="250" spans="44:44">
+      <c r="AR250" s="1">
         <v>6966</v>
       </c>
     </row>
-    <row r="251" spans="43:43">
-      <c r="AQ251" s="1">
+    <row r="251" spans="44:44">
+      <c r="AR251" s="1">
         <v>6967</v>
       </c>
     </row>
-    <row r="252" spans="43:43">
-      <c r="AQ252" s="1">
+    <row r="252" spans="44:44">
+      <c r="AR252" s="1">
         <v>6968</v>
       </c>
     </row>
-    <row r="253" spans="43:43">
-      <c r="AQ253" s="1">
+    <row r="253" spans="44:44">
+      <c r="AR253" s="1">
         <v>6969</v>
       </c>
     </row>
-    <row r="254" spans="43:43">
-      <c r="AQ254" s="1">
+    <row r="254" spans="44:44">
+      <c r="AR254" s="1">
         <v>6970</v>
       </c>
     </row>
-    <row r="255" spans="43:43">
-      <c r="AQ255" s="1">
+    <row r="255" spans="44:44">
+      <c r="AR255" s="1">
         <v>6971</v>
       </c>
     </row>
-    <row r="256" spans="43:43">
-      <c r="AQ256" s="1">
+    <row r="256" spans="44:44">
+      <c r="AR256" s="1">
         <v>6972</v>
       </c>
     </row>
-    <row r="257" spans="43:43">
-      <c r="AQ257" s="1">
+    <row r="257" spans="44:44">
+      <c r="AR257" s="1">
         <v>6973</v>
       </c>
     </row>
-    <row r="258" spans="43:43">
-      <c r="AQ258" s="1">
+    <row r="258" spans="44:44">
+      <c r="AR258" s="1">
         <v>6974</v>
       </c>
     </row>
-    <row r="259" spans="43:43">
-      <c r="AQ259" s="1">
+    <row r="259" spans="44:44">
+      <c r="AR259" s="1">
         <v>6975</v>
       </c>
     </row>
-    <row r="260" spans="43:43">
-      <c r="AQ260" s="1">
+    <row r="260" spans="44:44">
+      <c r="AR260" s="1">
         <v>6976</v>
       </c>
     </row>
-    <row r="261" spans="43:43">
-      <c r="AQ261" s="1">
+    <row r="261" spans="44:44">
+      <c r="AR261" s="1">
         <v>6977</v>
       </c>
     </row>
-    <row r="262" spans="43:43">
-      <c r="AQ262" s="1">
+    <row r="262" spans="44:44">
+      <c r="AR262" s="1">
         <v>6978</v>
       </c>
     </row>
-    <row r="263" spans="43:43">
-      <c r="AQ263" s="1">
+    <row r="263" spans="44:44">
+      <c r="AR263" s="1">
         <v>6979</v>
       </c>
     </row>
-    <row r="264" spans="43:43">
-      <c r="AQ264" s="1">
+    <row r="264" spans="44:44">
+      <c r="AR264" s="1">
         <v>6980</v>
       </c>
     </row>
-    <row r="265" spans="43:43">
-      <c r="AQ265" s="1">
+    <row r="265" spans="44:44">
+      <c r="AR265" s="1">
         <v>6981</v>
       </c>
     </row>
-    <row r="266" spans="43:43">
-      <c r="AQ266" s="1">
+    <row r="266" spans="44:44">
+      <c r="AR266" s="1">
         <v>6982</v>
       </c>
     </row>
-    <row r="267" spans="43:43">
-      <c r="AQ267" s="1">
+    <row r="267" spans="44:44">
+      <c r="AR267" s="1">
         <v>6983</v>
       </c>
     </row>
-    <row r="268" spans="43:43">
-      <c r="AQ268" s="1">
+    <row r="268" spans="44:44">
+      <c r="AR268" s="1">
         <v>6984</v>
       </c>
     </row>
-    <row r="269" spans="43:43">
-      <c r="AQ269" s="1">
+    <row r="269" spans="44:44">
+      <c r="AR269" s="1">
         <v>6985</v>
       </c>
     </row>
-    <row r="270" spans="43:43">
-      <c r="AQ270" s="1">
+    <row r="270" spans="44:44">
+      <c r="AR270" s="1">
         <v>6986</v>
       </c>
     </row>
-    <row r="271" spans="43:43">
-      <c r="AQ271" s="1">
+    <row r="271" spans="44:44">
+      <c r="AR271" s="1">
         <v>6987</v>
       </c>
     </row>
-    <row r="272" spans="43:43">
-      <c r="AQ272" s="1">
+    <row r="272" spans="44:44">
+      <c r="AR272" s="1">
         <v>6988</v>
       </c>
     </row>
-    <row r="273" spans="43:43">
-      <c r="AQ273" s="1">
+    <row r="273" spans="44:44">
+      <c r="AR273" s="1">
         <v>6989</v>
       </c>
     </row>
-    <row r="274" spans="43:43">
-      <c r="AQ274" s="1">
+    <row r="274" spans="44:44">
+      <c r="AR274" s="1">
         <v>6990</v>
       </c>
     </row>
-    <row r="275" spans="43:43">
-      <c r="AQ275" s="1">
+    <row r="275" spans="44:44">
+      <c r="AR275" s="1">
         <v>6991</v>
       </c>
     </row>
-    <row r="276" spans="43:43">
-      <c r="AQ276" s="1">
+    <row r="276" spans="44:44">
+      <c r="AR276" s="1">
         <v>6992</v>
       </c>
     </row>
-    <row r="277" spans="43:43">
-      <c r="AQ277" s="1">
+    <row r="277" spans="44:44">
+      <c r="AR277" s="1">
         <v>6993</v>
       </c>
     </row>
-    <row r="278" spans="43:43">
-      <c r="AQ278" s="1">
+    <row r="278" spans="44:44">
+      <c r="AR278" s="1">
         <v>6994</v>
       </c>
     </row>
-    <row r="279" spans="43:43">
-      <c r="AQ279" s="1">
+    <row r="279" spans="44:44">
+      <c r="AR279" s="1">
         <v>6995</v>
       </c>
     </row>
-    <row r="280" spans="43:43">
-      <c r="AQ280" s="1">
+    <row r="280" spans="44:44">
+      <c r="AR280" s="1">
         <v>6996</v>
       </c>
     </row>
-    <row r="281" spans="43:43">
-      <c r="AQ281" s="1">
+    <row r="281" spans="44:44">
+      <c r="AR281" s="1">
         <v>6997</v>
       </c>
     </row>
-    <row r="282" spans="43:43">
-      <c r="AQ282" s="1">
+    <row r="282" spans="44:44">
+      <c r="AR282" s="1">
         <v>6998</v>
       </c>
     </row>
-    <row r="283" spans="43:43">
-      <c r="AQ283" s="1">
+    <row r="283" spans="44:44">
+      <c r="AR283" s="1">
         <v>6999</v>
       </c>
     </row>
-    <row r="284" spans="43:43">
-      <c r="AQ284" s="1">
+    <row r="284" spans="44:44">
+      <c r="AR284" s="1">
         <v>7000</v>
       </c>
     </row>
-    <row r="285" spans="43:43">
-      <c r="AQ285" s="1">
+    <row r="285" spans="44:44">
+      <c r="AR285" s="1">
         <v>7001</v>
       </c>
     </row>
-    <row r="286" spans="43:43">
-      <c r="AQ286" s="1">
+    <row r="286" spans="44:44">
+      <c r="AR286" s="1">
         <v>7002</v>
       </c>
     </row>
-    <row r="287" spans="43:43">
-      <c r="AQ287" s="1">
+    <row r="287" spans="44:44">
+      <c r="AR287" s="1">
         <v>7003</v>
       </c>
     </row>
-    <row r="288" spans="43:43">
-      <c r="AQ288" s="1">
+    <row r="288" spans="44:44">
+      <c r="AR288" s="1">
         <v>7004</v>
       </c>
     </row>
-    <row r="289" spans="43:43">
-      <c r="AQ289" s="1">
+    <row r="289" spans="44:44">
+      <c r="AR289" s="1">
         <v>7005</v>
       </c>
     </row>
-    <row r="290" spans="43:43">
-      <c r="AQ290" s="1">
+    <row r="290" spans="44:44">
+      <c r="AR290" s="1">
         <v>7006</v>
       </c>
     </row>
-    <row r="291" spans="43:43">
-      <c r="AQ291" s="1">
+    <row r="291" spans="44:44">
+      <c r="AR291" s="1">
         <v>7007</v>
       </c>
     </row>
-    <row r="292" spans="43:43">
-      <c r="AQ292" s="1">
+    <row r="292" spans="44:44">
+      <c r="AR292" s="1">
         <v>7008</v>
       </c>
     </row>
-    <row r="293" spans="43:43">
-      <c r="AQ293" s="1">
+    <row r="293" spans="44:44">
+      <c r="AR293" s="1">
         <v>7009</v>
       </c>
     </row>
-    <row r="294" spans="43:43">
-      <c r="AQ294" s="1">
+    <row r="294" spans="44:44">
+      <c r="AR294" s="1">
         <v>7010</v>
       </c>
     </row>
-    <row r="295" spans="43:43">
-      <c r="AQ295" s="1">
+    <row r="295" spans="44:44">
+      <c r="AR295" s="1">
         <v>7011</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="M2:M88">
-    <sortCondition ref="M1"/>
+  <sortState ref="AO2:AO144">
+    <sortCondition ref="AO2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8650,10 +9115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT294"/>
+  <dimension ref="A1:AU294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AO143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8705,7 +9170,7 @@
     <col min="46" max="46" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="A1" s="1">
         <v>6402</v>
       </c>
@@ -8827,25 +9292,28 @@
         <v>6309</v>
       </c>
       <c r="AO1" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AP1" s="1">
         <v>6334</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>5157</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="1">
         <v>6575</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="1">
         <v>6513</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AT1" s="1">
         <v>5369</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AU1" s="1">
         <v>5394</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:47">
       <c r="A2" s="1">
         <v>6404</v>
       </c>
@@ -8961,25 +9429,28 @@
         <v>6310</v>
       </c>
       <c r="AO2" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AP2" s="1">
         <v>6335</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AQ2" s="1">
         <v>5216</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AR2" s="1">
         <v>6576</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AS2" s="1">
         <v>6514</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AT2" s="1">
         <v>5370</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AU2" s="1">
         <v>5395</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:47">
       <c r="A3" s="1">
         <v>6405</v>
       </c>
@@ -9086,25 +9557,28 @@
         <v>6311</v>
       </c>
       <c r="AO3" s="1">
+        <v>6871</v>
+      </c>
+      <c r="AP3" s="1">
         <v>6336</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AQ3" s="1">
         <v>5217</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AR3" s="1">
         <v>6577</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AS3" s="1">
         <v>6515</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AT3" s="1">
         <v>5371</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AU3" s="1">
         <v>5396</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:47">
       <c r="A4" s="1">
         <v>6406</v>
       </c>
@@ -9199,25 +9673,28 @@
         <v>6346</v>
       </c>
       <c r="AO4" s="1">
+        <v>6872</v>
+      </c>
+      <c r="AP4" s="1">
         <v>6337</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AQ4" s="1">
         <v>5218</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AR4" s="1">
         <v>6578</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AS4" s="1">
         <v>6516</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AT4" s="1">
         <v>5372</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AU4" s="1">
         <v>5397</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:47">
       <c r="A5" s="1">
         <v>6407</v>
       </c>
@@ -9312,25 +9789,28 @@
         <v>6347</v>
       </c>
       <c r="AO5" s="1">
+        <v>6873</v>
+      </c>
+      <c r="AP5" s="1">
         <v>6338</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <v>5219</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AR5" s="1">
         <v>6579</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AS5" s="1">
         <v>6517</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AT5" s="1">
         <v>5373</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AU5" s="1">
         <v>5398</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:47">
       <c r="A6" s="1">
         <v>6408</v>
       </c>
@@ -9421,20 +9901,24 @@
       <c r="AL6" s="1">
         <v>6348</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AO6" s="1">
+        <v>6874</v>
+      </c>
+      <c r="AQ6" s="1">
         <v>5220</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AR6" s="1">
         <v>6580</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AS6" s="1">
         <v>6518</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AT6" s="1">
         <v>5374</v>
       </c>
-    </row>
-    <row r="7" spans="1:46">
+      <c r="AU6" s="1"/>
+    </row>
+    <row r="7" spans="1:47">
       <c r="A7" s="1">
         <v>6409</v>
       </c>
@@ -9519,20 +10003,24 @@
       <c r="AL7" s="1">
         <v>6349</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AO7" s="1">
+        <v>6875</v>
+      </c>
+      <c r="AQ7" s="1">
         <v>5221</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AR7" s="1">
         <v>6581</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AS7" s="1">
         <v>6519</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AT7" s="1">
         <v>5375</v>
       </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AU7" s="1"/>
+    </row>
+    <row r="8" spans="1:47">
       <c r="A8" s="1">
         <v>6410</v>
       </c>
@@ -9608,20 +10096,24 @@
       <c r="AK8" s="1">
         <v>5165</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AO8" s="1">
+        <v>6876</v>
+      </c>
+      <c r="AQ8" s="1">
         <v>5222</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AR8" s="1">
         <v>6583</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AS8" s="1">
         <v>6520</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AT8" s="1">
         <v>5376</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="AU8" s="1"/>
+    </row>
+    <row r="9" spans="1:47">
       <c r="A9" s="1">
         <v>6411</v>
       </c>
@@ -9697,20 +10189,24 @@
       <c r="AK9" s="1">
         <v>5166</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AO9" s="1">
+        <v>6877</v>
+      </c>
+      <c r="AQ9" s="1">
         <v>5223</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AR9" s="1">
         <v>6584</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AS9" s="1">
         <v>6521</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AT9" s="1">
         <v>5377</v>
       </c>
-    </row>
-    <row r="10" spans="1:46">
+      <c r="AU9" s="1"/>
+    </row>
+    <row r="10" spans="1:47">
       <c r="A10" s="1">
         <v>6412</v>
       </c>
@@ -9783,20 +10279,24 @@
       <c r="AK10" s="1">
         <v>5167</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AO10" s="1">
+        <v>6878</v>
+      </c>
+      <c r="AQ10" s="1">
         <v>5224</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AR10" s="1">
         <v>6586</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AS10" s="1">
         <v>6522</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AT10" s="1">
         <v>5378</v>
       </c>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="AU10" s="1"/>
+    </row>
+    <row r="11" spans="1:47">
       <c r="A11" s="1">
         <v>6413</v>
       </c>
@@ -9869,20 +10369,24 @@
       <c r="AK11" s="1">
         <v>5168</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AO11" s="1">
+        <v>6879</v>
+      </c>
+      <c r="AQ11" s="1">
         <v>5225</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AR11" s="1">
         <v>6587</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AS11" s="1">
         <v>6523</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AT11" s="1">
         <v>5379</v>
       </c>
-    </row>
-    <row r="12" spans="1:46">
+      <c r="AU11" s="1"/>
+    </row>
+    <row r="12" spans="1:47">
       <c r="A12" s="1">
         <v>6415</v>
       </c>
@@ -9952,17 +10456,21 @@
       <c r="AK12" s="1">
         <v>5169</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AO12" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AR12" s="1">
         <v>6588</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AS12" s="1">
         <v>6524</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AT12" s="1">
         <v>5380</v>
       </c>
-    </row>
-    <row r="13" spans="1:46">
+      <c r="AU12" s="1"/>
+    </row>
+    <row r="13" spans="1:47">
       <c r="A13" s="1">
         <v>6416</v>
       </c>
@@ -10026,17 +10534,21 @@
       <c r="AK13" s="1">
         <v>5170</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AO13" s="1">
+        <v>6881</v>
+      </c>
+      <c r="AR13" s="1">
         <v>6589</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AS13" s="1">
         <v>6525</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AT13" s="1">
         <v>5381</v>
       </c>
-    </row>
-    <row r="14" spans="1:46">
+      <c r="AU13" s="1"/>
+    </row>
+    <row r="14" spans="1:47">
       <c r="A14" s="1">
         <v>6417</v>
       </c>
@@ -10097,17 +10609,21 @@
       <c r="AK14" s="1">
         <v>5171</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AO14" s="1">
+        <v>6882</v>
+      </c>
+      <c r="AR14" s="1">
         <v>6590</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AS14" s="1">
         <v>6526</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AT14" s="1">
         <v>5382</v>
       </c>
-    </row>
-    <row r="15" spans="1:46">
+      <c r="AU14" s="1"/>
+    </row>
+    <row r="15" spans="1:47">
       <c r="A15" s="1">
         <v>6418</v>
       </c>
@@ -10168,17 +10684,21 @@
       <c r="AK15" s="1">
         <v>5172</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AO15" s="1">
+        <v>6883</v>
+      </c>
+      <c r="AR15" s="1">
         <v>6591</v>
       </c>
-      <c r="AR15" s="1">
+      <c r="AS15" s="1">
         <v>6527</v>
       </c>
-      <c r="AS15" s="1">
+      <c r="AT15" s="1">
         <v>5383</v>
       </c>
-    </row>
-    <row r="16" spans="1:46">
+      <c r="AU15" s="1"/>
+    </row>
+    <row r="16" spans="1:47">
       <c r="A16" s="1">
         <v>6419</v>
       </c>
@@ -10239,17 +10759,21 @@
       <c r="AK16" s="1">
         <v>5173</v>
       </c>
-      <c r="AQ16" s="1">
+      <c r="AO16" s="1">
+        <v>6884</v>
+      </c>
+      <c r="AR16" s="1">
         <v>6592</v>
       </c>
-      <c r="AR16" s="1">
+      <c r="AS16" s="1">
         <v>6528</v>
       </c>
-      <c r="AS16" s="1">
+      <c r="AT16" s="1">
         <v>5384</v>
       </c>
-    </row>
-    <row r="17" spans="1:45">
+      <c r="AU16" s="1"/>
+    </row>
+    <row r="17" spans="1:47">
       <c r="A17" s="1">
         <v>6420</v>
       </c>
@@ -10307,17 +10831,21 @@
       <c r="AK17" s="1">
         <v>5174</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="AO17" s="1">
+        <v>6885</v>
+      </c>
+      <c r="AR17" s="1">
         <v>6593</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="AS17" s="1">
         <v>6529</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="AT17" s="1">
         <v>5385</v>
       </c>
-    </row>
-    <row r="18" spans="1:45">
+      <c r="AU17" s="1"/>
+    </row>
+    <row r="18" spans="1:47">
       <c r="A18" s="1">
         <v>6421</v>
       </c>
@@ -10375,17 +10903,21 @@
       <c r="AK18" s="1">
         <v>5175</v>
       </c>
-      <c r="AQ18" s="1">
+      <c r="AO18" s="1">
+        <v>6886</v>
+      </c>
+      <c r="AR18" s="1">
         <v>6594</v>
       </c>
-      <c r="AR18" s="1">
+      <c r="AS18" s="1">
         <v>6530</v>
       </c>
-      <c r="AS18" s="1">
+      <c r="AT18" s="1">
         <v>5386</v>
       </c>
-    </row>
-    <row r="19" spans="1:45">
+      <c r="AU18" s="1"/>
+    </row>
+    <row r="19" spans="1:47">
       <c r="A19" s="1">
         <v>6422</v>
       </c>
@@ -10443,17 +10975,21 @@
       <c r="AK19" s="1">
         <v>5176</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AO19" s="1">
+        <v>6887</v>
+      </c>
+      <c r="AR19" s="1">
         <v>6595</v>
       </c>
-      <c r="AR19" s="1">
+      <c r="AS19" s="1">
         <v>6531</v>
       </c>
-      <c r="AS19" s="1">
+      <c r="AT19" s="1">
         <v>5387</v>
       </c>
-    </row>
-    <row r="20" spans="1:45">
+      <c r="AU19" s="1"/>
+    </row>
+    <row r="20" spans="1:47">
       <c r="A20" s="1">
         <v>6423</v>
       </c>
@@ -10511,17 +11047,21 @@
       <c r="AK20" s="1">
         <v>5177</v>
       </c>
-      <c r="AQ20" s="1">
+      <c r="AO20" s="1">
+        <v>6888</v>
+      </c>
+      <c r="AR20" s="1">
         <v>6596</v>
       </c>
-      <c r="AR20" s="1">
+      <c r="AS20" s="1">
         <v>6532</v>
       </c>
-      <c r="AS20" s="1">
+      <c r="AT20" s="1">
         <v>5388</v>
       </c>
-    </row>
-    <row r="21" spans="1:45">
+      <c r="AU20" s="1"/>
+    </row>
+    <row r="21" spans="1:47">
       <c r="A21" s="1">
         <v>6424</v>
       </c>
@@ -10576,17 +11116,21 @@
       <c r="AK21" s="1">
         <v>5178</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AO21" s="1">
+        <v>6889</v>
+      </c>
+      <c r="AR21" s="1">
         <v>6597</v>
       </c>
-      <c r="AR21" s="1">
+      <c r="AS21" s="1">
         <v>6533</v>
       </c>
-      <c r="AS21" s="1">
+      <c r="AT21" s="1">
         <v>5389</v>
       </c>
-    </row>
-    <row r="22" spans="1:45">
+      <c r="AU21" s="1"/>
+    </row>
+    <row r="22" spans="1:47">
       <c r="A22" s="1">
         <v>6425</v>
       </c>
@@ -10641,17 +11185,21 @@
       <c r="AK22" s="1">
         <v>5179</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AO22" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AR22" s="1">
         <v>6598</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AS22" s="1">
         <v>6534</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AT22" s="1">
         <v>5390</v>
       </c>
-    </row>
-    <row r="23" spans="1:45">
+      <c r="AU22" s="1"/>
+    </row>
+    <row r="23" spans="1:47">
       <c r="A23" s="1">
         <v>6426</v>
       </c>
@@ -10706,17 +11254,21 @@
       <c r="AK23" s="1">
         <v>5180</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AO23" s="1">
+        <v>6891</v>
+      </c>
+      <c r="AR23" s="1">
         <v>6599</v>
       </c>
-      <c r="AR23" s="1">
+      <c r="AS23" s="1">
         <v>6535</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AT23" s="1">
         <v>5391</v>
       </c>
-    </row>
-    <row r="24" spans="1:45">
+      <c r="AU23" s="1"/>
+    </row>
+    <row r="24" spans="1:47">
       <c r="A24" s="1">
         <v>6427</v>
       </c>
@@ -10771,17 +11323,21 @@
       <c r="AK24" s="1">
         <v>5181</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AO24" s="1">
+        <v>6892</v>
+      </c>
+      <c r="AR24" s="1">
         <v>6600</v>
       </c>
-      <c r="AR24" s="1">
+      <c r="AS24" s="1">
         <v>6536</v>
       </c>
-      <c r="AS24" s="1">
+      <c r="AT24" s="1">
         <v>5392</v>
       </c>
-    </row>
-    <row r="25" spans="1:45">
+      <c r="AU24" s="1"/>
+    </row>
+    <row r="25" spans="1:47">
       <c r="A25" s="1">
         <v>6428</v>
       </c>
@@ -10836,17 +11392,21 @@
       <c r="AK25" s="1">
         <v>5182</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AO25" s="1">
+        <v>6893</v>
+      </c>
+      <c r="AR25" s="1">
         <v>6601</v>
       </c>
-      <c r="AR25" s="1">
+      <c r="AS25" s="1">
         <v>6537</v>
       </c>
-      <c r="AS25" s="1">
+      <c r="AT25" s="1">
         <v>5393</v>
       </c>
-    </row>
-    <row r="26" spans="1:45">
+      <c r="AU25" s="1"/>
+    </row>
+    <row r="26" spans="1:47">
       <c r="A26" s="1">
         <v>6429</v>
       </c>
@@ -10898,14 +11458,18 @@
       <c r="AK26" s="1">
         <v>5183</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AO26" s="1">
+        <v>6894</v>
+      </c>
+      <c r="AR26" s="1">
         <v>6602</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AS26" s="1">
         <v>6538</v>
       </c>
-    </row>
-    <row r="27" spans="1:45">
+      <c r="AU26" s="1"/>
+    </row>
+    <row r="27" spans="1:47">
       <c r="A27" s="1">
         <v>6430</v>
       </c>
@@ -10957,14 +11521,18 @@
       <c r="AK27" s="1">
         <v>5184</v>
       </c>
-      <c r="AQ27" s="1">
+      <c r="AO27" s="1">
+        <v>6895</v>
+      </c>
+      <c r="AR27" s="1">
         <v>6603</v>
       </c>
-      <c r="AR27" s="1">
+      <c r="AS27" s="1">
         <v>6539</v>
       </c>
-    </row>
-    <row r="28" spans="1:45">
+      <c r="AU27" s="1"/>
+    </row>
+    <row r="28" spans="1:47">
       <c r="A28" s="1">
         <v>6431</v>
       </c>
@@ -11013,14 +11581,18 @@
       <c r="AK28" s="1">
         <v>5185</v>
       </c>
-      <c r="AQ28" s="1">
+      <c r="AO28" s="1">
+        <v>6896</v>
+      </c>
+      <c r="AR28" s="1">
         <v>6604</v>
       </c>
-      <c r="AR28" s="1">
+      <c r="AS28" s="1">
         <v>6540</v>
       </c>
-    </row>
-    <row r="29" spans="1:45">
+      <c r="AU28" s="1"/>
+    </row>
+    <row r="29" spans="1:47">
       <c r="A29" s="1">
         <v>6432</v>
       </c>
@@ -11069,14 +11641,18 @@
       <c r="AK29" s="1">
         <v>5186</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AO29" s="1">
+        <v>6897</v>
+      </c>
+      <c r="AR29" s="1">
         <v>6605</v>
       </c>
-      <c r="AR29" s="1">
+      <c r="AS29" s="1">
         <v>6541</v>
       </c>
-    </row>
-    <row r="30" spans="1:45">
+      <c r="AU29" s="1"/>
+    </row>
+    <row r="30" spans="1:47">
       <c r="A30" s="1">
         <v>6433</v>
       </c>
@@ -11125,14 +11701,18 @@
       <c r="AK30" s="1">
         <v>5187</v>
       </c>
-      <c r="AQ30" s="1">
+      <c r="AO30" s="1">
+        <v>6898</v>
+      </c>
+      <c r="AR30" s="1">
         <v>6606</v>
       </c>
-      <c r="AR30" s="1">
+      <c r="AS30" s="1">
         <v>6542</v>
       </c>
-    </row>
-    <row r="31" spans="1:45">
+      <c r="AU30" s="1"/>
+    </row>
+    <row r="31" spans="1:47">
       <c r="A31" s="1">
         <v>6434</v>
       </c>
@@ -11181,14 +11761,18 @@
       <c r="AK31" s="1">
         <v>5188</v>
       </c>
-      <c r="AQ31" s="1">
+      <c r="AO31" s="1">
+        <v>6899</v>
+      </c>
+      <c r="AR31" s="1">
         <v>6607</v>
       </c>
-      <c r="AR31" s="1">
+      <c r="AS31" s="1">
         <v>6543</v>
       </c>
-    </row>
-    <row r="32" spans="1:45">
+      <c r="AU31" s="1"/>
+    </row>
+    <row r="32" spans="1:47">
       <c r="A32" s="1">
         <v>6435</v>
       </c>
@@ -11237,14 +11821,18 @@
       <c r="AK32" s="1">
         <v>5189</v>
       </c>
-      <c r="AQ32" s="1">
+      <c r="AO32" s="1">
+        <v>6900</v>
+      </c>
+      <c r="AR32" s="1">
         <v>6608</v>
       </c>
-      <c r="AR32" s="1">
+      <c r="AS32" s="1">
         <v>6544</v>
       </c>
-    </row>
-    <row r="33" spans="1:44">
+      <c r="AU32" s="1"/>
+    </row>
+    <row r="33" spans="1:47">
       <c r="A33" s="1">
         <v>6436</v>
       </c>
@@ -11293,14 +11881,18 @@
       <c r="AK33" s="1">
         <v>5190</v>
       </c>
-      <c r="AQ33" s="1">
+      <c r="AO33" s="1">
+        <v>6901</v>
+      </c>
+      <c r="AR33" s="1">
         <v>6609</v>
       </c>
-      <c r="AR33" s="1">
+      <c r="AS33" s="1">
         <v>6545</v>
       </c>
-    </row>
-    <row r="34" spans="1:44">
+      <c r="AU33" s="1"/>
+    </row>
+    <row r="34" spans="1:47">
       <c r="A34" s="1">
         <v>6437</v>
       </c>
@@ -11346,14 +11938,18 @@
       <c r="AK34" s="1">
         <v>5191</v>
       </c>
-      <c r="AQ34" s="1">
+      <c r="AO34" s="1">
+        <v>6902</v>
+      </c>
+      <c r="AR34" s="1">
         <v>6610</v>
       </c>
-      <c r="AR34" s="1">
+      <c r="AS34" s="1">
         <v>6546</v>
       </c>
-    </row>
-    <row r="35" spans="1:44">
+      <c r="AU34" s="1"/>
+    </row>
+    <row r="35" spans="1:47">
       <c r="A35" s="1">
         <v>6438</v>
       </c>
@@ -11399,14 +11995,18 @@
       <c r="AK35" s="1">
         <v>5192</v>
       </c>
-      <c r="AQ35" s="1">
+      <c r="AO35" s="1">
+        <v>6903</v>
+      </c>
+      <c r="AR35" s="1">
         <v>6611</v>
       </c>
-      <c r="AR35" s="1">
+      <c r="AS35" s="1">
         <v>6547</v>
       </c>
-    </row>
-    <row r="36" spans="1:44">
+      <c r="AU35" s="1"/>
+    </row>
+    <row r="36" spans="1:47">
       <c r="A36" s="1">
         <v>6439</v>
       </c>
@@ -11449,14 +12049,18 @@
       <c r="AK36" s="1">
         <v>5193</v>
       </c>
-      <c r="AQ36" s="1">
+      <c r="AO36" s="1">
+        <v>6904</v>
+      </c>
+      <c r="AR36" s="1">
         <v>6612</v>
       </c>
-      <c r="AR36" s="1">
+      <c r="AS36" s="1">
         <v>6548</v>
       </c>
-    </row>
-    <row r="37" spans="1:44">
+      <c r="AU36" s="1"/>
+    </row>
+    <row r="37" spans="1:47">
       <c r="A37" s="1">
         <v>6440</v>
       </c>
@@ -11499,14 +12103,18 @@
       <c r="AK37" s="1">
         <v>5194</v>
       </c>
-      <c r="AQ37" s="1">
+      <c r="AO37" s="1">
+        <v>6905</v>
+      </c>
+      <c r="AR37" s="1">
         <v>6613</v>
       </c>
-      <c r="AR37" s="1">
+      <c r="AS37" s="1">
         <v>6549</v>
       </c>
-    </row>
-    <row r="38" spans="1:44">
+      <c r="AU37" s="1"/>
+    </row>
+    <row r="38" spans="1:47">
       <c r="A38" s="1">
         <v>6441</v>
       </c>
@@ -11546,14 +12154,18 @@
       <c r="AK38" s="1">
         <v>5195</v>
       </c>
-      <c r="AQ38" s="1">
+      <c r="AO38" s="1">
+        <v>6906</v>
+      </c>
+      <c r="AR38" s="1">
         <v>6614</v>
       </c>
-      <c r="AR38" s="1">
+      <c r="AS38" s="1">
         <v>6550</v>
       </c>
-    </row>
-    <row r="39" spans="1:44">
+      <c r="AU38" s="1"/>
+    </row>
+    <row r="39" spans="1:47">
       <c r="A39" s="1">
         <v>6442</v>
       </c>
@@ -11593,14 +12205,18 @@
       <c r="AK39" s="1">
         <v>5196</v>
       </c>
-      <c r="AQ39" s="1">
+      <c r="AO39" s="1">
+        <v>6907</v>
+      </c>
+      <c r="AR39" s="1">
         <v>6615</v>
       </c>
-      <c r="AR39" s="1">
+      <c r="AS39" s="1">
         <v>6551</v>
       </c>
-    </row>
-    <row r="40" spans="1:44">
+      <c r="AU39" s="1"/>
+    </row>
+    <row r="40" spans="1:47">
       <c r="A40" s="1">
         <v>6443</v>
       </c>
@@ -11640,14 +12256,18 @@
       <c r="AK40" s="1">
         <v>5197</v>
       </c>
-      <c r="AQ40" s="1">
+      <c r="AO40" s="1">
+        <v>6908</v>
+      </c>
+      <c r="AR40" s="1">
         <v>6616</v>
       </c>
-      <c r="AR40" s="1">
+      <c r="AS40" s="1">
         <v>6552</v>
       </c>
-    </row>
-    <row r="41" spans="1:44">
+      <c r="AU40" s="1"/>
+    </row>
+    <row r="41" spans="1:47">
       <c r="A41" s="1">
         <v>6444</v>
       </c>
@@ -11687,14 +12307,18 @@
       <c r="AK41" s="1">
         <v>5198</v>
       </c>
-      <c r="AQ41" s="1">
+      <c r="AO41" s="1">
+        <v>6909</v>
+      </c>
+      <c r="AR41" s="1">
         <v>6617</v>
       </c>
-      <c r="AR41" s="1">
+      <c r="AS41" s="1">
         <v>6553</v>
       </c>
-    </row>
-    <row r="42" spans="1:44">
+      <c r="AU41" s="1"/>
+    </row>
+    <row r="42" spans="1:47">
       <c r="A42" s="1">
         <v>6445</v>
       </c>
@@ -11734,14 +12358,18 @@
       <c r="AK42" s="1">
         <v>5199</v>
       </c>
-      <c r="AQ42" s="1">
+      <c r="AO42" s="1">
+        <v>6910</v>
+      </c>
+      <c r="AR42" s="1">
         <v>6618</v>
       </c>
-      <c r="AR42" s="1">
+      <c r="AS42" s="1">
         <v>6554</v>
       </c>
-    </row>
-    <row r="43" spans="1:44">
+      <c r="AU42" s="1"/>
+    </row>
+    <row r="43" spans="1:47">
       <c r="A43" s="1">
         <v>6446</v>
       </c>
@@ -11781,14 +12409,18 @@
       <c r="AK43" s="1">
         <v>5200</v>
       </c>
-      <c r="AQ43" s="1">
+      <c r="AO43" s="1">
+        <v>6911</v>
+      </c>
+      <c r="AR43" s="1">
         <v>6619</v>
       </c>
-      <c r="AR43" s="1">
+      <c r="AS43" s="1">
         <v>6555</v>
       </c>
-    </row>
-    <row r="44" spans="1:44">
+      <c r="AU43" s="1"/>
+    </row>
+    <row r="44" spans="1:47">
       <c r="A44" s="1">
         <v>6447</v>
       </c>
@@ -11828,14 +12460,18 @@
       <c r="AK44" s="1">
         <v>5201</v>
       </c>
-      <c r="AQ44" s="1">
+      <c r="AO44" s="1">
+        <v>6912</v>
+      </c>
+      <c r="AR44" s="1">
         <v>6620</v>
       </c>
-      <c r="AR44" s="1">
+      <c r="AS44" s="1">
         <v>6556</v>
       </c>
-    </row>
-    <row r="45" spans="1:44">
+      <c r="AU44" s="1"/>
+    </row>
+    <row r="45" spans="1:47">
       <c r="A45" s="1">
         <v>6448</v>
       </c>
@@ -11875,14 +12511,18 @@
       <c r="AK45" s="1">
         <v>5202</v>
       </c>
-      <c r="AQ45" s="1">
+      <c r="AO45" s="1">
+        <v>6913</v>
+      </c>
+      <c r="AR45" s="1">
         <v>6621</v>
       </c>
-      <c r="AR45" s="1">
+      <c r="AS45" s="1">
         <v>6557</v>
       </c>
-    </row>
-    <row r="46" spans="1:44">
+      <c r="AU45" s="1"/>
+    </row>
+    <row r="46" spans="1:47">
       <c r="A46" s="1">
         <v>6449</v>
       </c>
@@ -11922,14 +12562,18 @@
       <c r="AK46" s="1">
         <v>5203</v>
       </c>
-      <c r="AQ46" s="1">
+      <c r="AO46" s="1">
+        <v>6914</v>
+      </c>
+      <c r="AR46" s="1">
         <v>6622</v>
       </c>
-      <c r="AR46" s="1">
+      <c r="AS46" s="1">
         <v>6558</v>
       </c>
-    </row>
-    <row r="47" spans="1:44">
+      <c r="AU46" s="1"/>
+    </row>
+    <row r="47" spans="1:47">
       <c r="A47" s="1">
         <v>6450</v>
       </c>
@@ -11969,14 +12613,18 @@
       <c r="AK47" s="1">
         <v>5204</v>
       </c>
-      <c r="AQ47" s="1">
+      <c r="AO47" s="1">
+        <v>6915</v>
+      </c>
+      <c r="AR47" s="1">
         <v>6623</v>
       </c>
-      <c r="AR47" s="1">
+      <c r="AS47" s="1">
         <v>6559</v>
       </c>
-    </row>
-    <row r="48" spans="1:44">
+      <c r="AU47" s="1"/>
+    </row>
+    <row r="48" spans="1:47">
       <c r="A48" s="1">
         <v>6451</v>
       </c>
@@ -12016,14 +12664,18 @@
       <c r="AK48" s="1">
         <v>5205</v>
       </c>
-      <c r="AQ48" s="1">
+      <c r="AO48" s="1">
+        <v>6916</v>
+      </c>
+      <c r="AR48" s="1">
         <v>6624</v>
       </c>
-      <c r="AR48" s="1">
+      <c r="AS48" s="1">
         <v>6560</v>
       </c>
-    </row>
-    <row r="49" spans="1:44">
+      <c r="AU48" s="1"/>
+    </row>
+    <row r="49" spans="1:47">
       <c r="A49" s="1">
         <v>6452</v>
       </c>
@@ -12063,14 +12715,18 @@
       <c r="AK49" s="1">
         <v>5206</v>
       </c>
-      <c r="AQ49" s="1">
+      <c r="AO49" s="1">
+        <v>6917</v>
+      </c>
+      <c r="AR49" s="1">
         <v>6625</v>
       </c>
-      <c r="AR49" s="1">
+      <c r="AS49" s="1">
         <v>6561</v>
       </c>
-    </row>
-    <row r="50" spans="1:44">
+      <c r="AU49" s="1"/>
+    </row>
+    <row r="50" spans="1:47">
       <c r="A50" s="1">
         <v>6453</v>
       </c>
@@ -12110,14 +12766,18 @@
       <c r="AK50" s="1">
         <v>5207</v>
       </c>
-      <c r="AQ50" s="1">
+      <c r="AO50" s="1">
+        <v>6918</v>
+      </c>
+      <c r="AR50" s="1">
         <v>6626</v>
       </c>
-      <c r="AR50" s="1">
+      <c r="AS50" s="1">
         <v>6562</v>
       </c>
-    </row>
-    <row r="51" spans="1:44">
+      <c r="AU50" s="1"/>
+    </row>
+    <row r="51" spans="1:47">
       <c r="A51" s="1">
         <v>6454</v>
       </c>
@@ -12157,14 +12817,18 @@
       <c r="AK51" s="1">
         <v>5208</v>
       </c>
-      <c r="AQ51" s="1">
+      <c r="AO51" s="1">
+        <v>6919</v>
+      </c>
+      <c r="AR51" s="1">
         <v>6627</v>
       </c>
-      <c r="AR51" s="1">
+      <c r="AS51" s="1">
         <v>6563</v>
       </c>
-    </row>
-    <row r="52" spans="1:44">
+      <c r="AU51" s="1"/>
+    </row>
+    <row r="52" spans="1:47">
       <c r="A52" s="1">
         <v>6455</v>
       </c>
@@ -12204,14 +12868,18 @@
       <c r="AK52" s="1">
         <v>5209</v>
       </c>
-      <c r="AQ52" s="1">
+      <c r="AO52" s="1">
+        <v>6920</v>
+      </c>
+      <c r="AR52" s="1">
         <v>6628</v>
       </c>
-      <c r="AR52" s="1">
+      <c r="AS52" s="1">
         <v>6564</v>
       </c>
-    </row>
-    <row r="53" spans="1:44">
+      <c r="AU52" s="1"/>
+    </row>
+    <row r="53" spans="1:47">
       <c r="A53" s="1">
         <v>6456</v>
       </c>
@@ -12251,14 +12919,18 @@
       <c r="AK53" s="1">
         <v>5210</v>
       </c>
-      <c r="AQ53" s="1">
+      <c r="AO53" s="1">
+        <v>6921</v>
+      </c>
+      <c r="AR53" s="1">
         <v>6629</v>
       </c>
-      <c r="AR53" s="1">
+      <c r="AS53" s="1">
         <v>6565</v>
       </c>
-    </row>
-    <row r="54" spans="1:44">
+      <c r="AU53" s="1"/>
+    </row>
+    <row r="54" spans="1:47">
       <c r="A54" s="1">
         <v>6457</v>
       </c>
@@ -12298,14 +12970,18 @@
       <c r="AK54" s="1">
         <v>5211</v>
       </c>
-      <c r="AQ54" s="1">
+      <c r="AO54" s="1">
+        <v>6922</v>
+      </c>
+      <c r="AR54" s="1">
         <v>6630</v>
       </c>
-      <c r="AR54" s="1">
+      <c r="AS54" s="1">
         <v>6566</v>
       </c>
-    </row>
-    <row r="55" spans="1:44">
+      <c r="AU54" s="1"/>
+    </row>
+    <row r="55" spans="1:47">
       <c r="A55" s="1">
         <v>6458</v>
       </c>
@@ -12345,14 +13021,18 @@
       <c r="AK55" s="1">
         <v>5212</v>
       </c>
-      <c r="AQ55" s="1">
+      <c r="AO55" s="1">
+        <v>6923</v>
+      </c>
+      <c r="AR55" s="1">
         <v>6631</v>
       </c>
-      <c r="AR55" s="1">
+      <c r="AS55" s="1">
         <v>6567</v>
       </c>
-    </row>
-    <row r="56" spans="1:44">
+      <c r="AU55" s="1"/>
+    </row>
+    <row r="56" spans="1:47">
       <c r="A56" s="1">
         <v>6459</v>
       </c>
@@ -12392,14 +13072,18 @@
       <c r="AK56" s="1">
         <v>5213</v>
       </c>
-      <c r="AQ56" s="1">
+      <c r="AO56" s="1">
+        <v>6924</v>
+      </c>
+      <c r="AR56" s="1">
         <v>6632</v>
       </c>
-      <c r="AR56" s="1">
+      <c r="AS56" s="1">
         <v>6568</v>
       </c>
-    </row>
-    <row r="57" spans="1:44">
+      <c r="AU56" s="1"/>
+    </row>
+    <row r="57" spans="1:47">
       <c r="A57" s="1">
         <v>6460</v>
       </c>
@@ -12436,14 +13120,18 @@
       <c r="AK57" s="1">
         <v>5214</v>
       </c>
-      <c r="AQ57" s="1">
+      <c r="AO57" s="1">
+        <v>6925</v>
+      </c>
+      <c r="AR57" s="1">
         <v>6633</v>
       </c>
-      <c r="AR57" s="1">
+      <c r="AS57" s="1">
         <v>6569</v>
       </c>
-    </row>
-    <row r="58" spans="1:44">
+      <c r="AU57" s="1"/>
+    </row>
+    <row r="58" spans="1:47">
       <c r="A58" s="1">
         <v>6461</v>
       </c>
@@ -12480,14 +13168,18 @@
       <c r="AK58" s="1">
         <v>5215</v>
       </c>
-      <c r="AQ58" s="1">
+      <c r="AO58" s="1">
+        <v>6926</v>
+      </c>
+      <c r="AR58" s="1">
         <v>6634</v>
       </c>
-      <c r="AR58" s="1">
+      <c r="AS58" s="1">
         <v>6570</v>
       </c>
-    </row>
-    <row r="59" spans="1:44">
+      <c r="AU58" s="1"/>
+    </row>
+    <row r="59" spans="1:47">
       <c r="A59" s="1">
         <v>6462</v>
       </c>
@@ -12521,14 +13213,18 @@
       <c r="AG59" s="1">
         <v>5331</v>
       </c>
-      <c r="AQ59" s="1">
+      <c r="AO59" s="1">
+        <v>6927</v>
+      </c>
+      <c r="AR59" s="1">
         <v>6635</v>
       </c>
-      <c r="AR59" s="1">
+      <c r="AS59" s="1">
         <v>6571</v>
       </c>
-    </row>
-    <row r="60" spans="1:44">
+      <c r="AU59" s="1"/>
+    </row>
+    <row r="60" spans="1:47">
       <c r="A60" s="1">
         <v>6463</v>
       </c>
@@ -12562,14 +13258,18 @@
       <c r="AG60" s="1">
         <v>5332</v>
       </c>
-      <c r="AQ60" s="1">
+      <c r="AO60" s="1">
+        <v>6928</v>
+      </c>
+      <c r="AR60" s="1">
         <v>6636</v>
       </c>
-      <c r="AR60" s="1">
+      <c r="AS60" s="1">
         <v>6572</v>
       </c>
-    </row>
-    <row r="61" spans="1:44">
+      <c r="AU60" s="1"/>
+    </row>
+    <row r="61" spans="1:47">
       <c r="A61" s="1">
         <v>6464</v>
       </c>
@@ -12603,14 +13303,18 @@
       <c r="AG61" s="1">
         <v>5333</v>
       </c>
-      <c r="AQ61" s="1">
+      <c r="AO61" s="1">
+        <v>6929</v>
+      </c>
+      <c r="AR61" s="1">
         <v>6637</v>
       </c>
-      <c r="AR61" s="1">
+      <c r="AS61" s="1">
         <v>6573</v>
       </c>
-    </row>
-    <row r="62" spans="1:44">
+      <c r="AU61" s="1"/>
+    </row>
+    <row r="62" spans="1:47">
       <c r="A62" s="1">
         <v>6465</v>
       </c>
@@ -12644,14 +13348,18 @@
       <c r="AG62" s="1">
         <v>5334</v>
       </c>
-      <c r="AQ62" s="1">
+      <c r="AO62" s="1">
+        <v>6930</v>
+      </c>
+      <c r="AR62" s="1">
         <v>6638</v>
       </c>
-      <c r="AR62" s="1">
+      <c r="AS62" s="1">
         <v>6574</v>
       </c>
-    </row>
-    <row r="63" spans="1:44">
+      <c r="AU62" s="1"/>
+    </row>
+    <row r="63" spans="1:47">
       <c r="A63" s="1">
         <v>6466</v>
       </c>
@@ -12685,14 +13393,18 @@
       <c r="AG63" s="1">
         <v>5335</v>
       </c>
-      <c r="AQ63" s="1">
+      <c r="AO63" s="1">
+        <v>6931</v>
+      </c>
+      <c r="AR63" s="1">
         <v>6639</v>
       </c>
-      <c r="AR63" s="1">
+      <c r="AS63" s="1">
         <v>6582</v>
       </c>
-    </row>
-    <row r="64" spans="1:44">
+      <c r="AU63" s="1"/>
+    </row>
+    <row r="64" spans="1:47">
       <c r="A64" s="1">
         <v>6467</v>
       </c>
@@ -12726,14 +13438,18 @@
       <c r="AG64" s="1">
         <v>5336</v>
       </c>
-      <c r="AQ64" s="1">
+      <c r="AO64" s="1">
+        <v>6932</v>
+      </c>
+      <c r="AR64" s="1">
         <v>6640</v>
       </c>
-      <c r="AR64" s="1">
+      <c r="AS64" s="1">
         <v>6585</v>
       </c>
-    </row>
-    <row r="65" spans="1:43">
+      <c r="AU64" s="1"/>
+    </row>
+    <row r="65" spans="1:47">
       <c r="A65" s="1">
         <v>6468</v>
       </c>
@@ -12767,11 +13483,15 @@
       <c r="AG65" s="1">
         <v>5337</v>
       </c>
-      <c r="AQ65" s="1">
+      <c r="AO65" s="1">
+        <v>6933</v>
+      </c>
+      <c r="AR65" s="1">
         <v>6641</v>
       </c>
-    </row>
-    <row r="66" spans="1:43">
+      <c r="AU65" s="1"/>
+    </row>
+    <row r="66" spans="1:47">
       <c r="A66" s="1">
         <v>6469</v>
       </c>
@@ -12805,11 +13525,15 @@
       <c r="AG66" s="1">
         <v>5338</v>
       </c>
-      <c r="AQ66" s="1">
+      <c r="AO66" s="1">
+        <v>6934</v>
+      </c>
+      <c r="AR66" s="1">
         <v>6642</v>
       </c>
-    </row>
-    <row r="67" spans="1:43">
+      <c r="AU66" s="1"/>
+    </row>
+    <row r="67" spans="1:47">
       <c r="A67" s="1">
         <v>6470</v>
       </c>
@@ -12840,11 +13564,15 @@
       <c r="AG67" s="1">
         <v>5339</v>
       </c>
-      <c r="AQ67" s="1">
+      <c r="AO67" s="1">
+        <v>6935</v>
+      </c>
+      <c r="AR67" s="1">
         <v>6643</v>
       </c>
-    </row>
-    <row r="68" spans="1:43">
+      <c r="AU67" s="1"/>
+    </row>
+    <row r="68" spans="1:47">
       <c r="A68" s="1">
         <v>6471</v>
       </c>
@@ -12875,11 +13603,15 @@
       <c r="AG68" s="1">
         <v>5340</v>
       </c>
-      <c r="AQ68" s="1">
+      <c r="AO68" s="1">
+        <v>6936</v>
+      </c>
+      <c r="AR68" s="1">
         <v>6644</v>
       </c>
-    </row>
-    <row r="69" spans="1:43">
+      <c r="AU68" s="1"/>
+    </row>
+    <row r="69" spans="1:47">
       <c r="A69" s="1">
         <v>6472</v>
       </c>
@@ -12910,11 +13642,15 @@
       <c r="AG69" s="1">
         <v>5341</v>
       </c>
-      <c r="AQ69" s="1">
+      <c r="AO69" s="1">
+        <v>6937</v>
+      </c>
+      <c r="AR69" s="1">
         <v>6645</v>
       </c>
-    </row>
-    <row r="70" spans="1:43">
+      <c r="AU69" s="1"/>
+    </row>
+    <row r="70" spans="1:47">
       <c r="B70" s="1">
         <v>1108</v>
       </c>
@@ -12942,11 +13678,15 @@
       <c r="AG70" s="1">
         <v>5342</v>
       </c>
-      <c r="AQ70" s="1">
+      <c r="AO70" s="1">
+        <v>6938</v>
+      </c>
+      <c r="AR70" s="1">
         <v>6646</v>
       </c>
-    </row>
-    <row r="71" spans="1:43">
+      <c r="AU70" s="1"/>
+    </row>
+    <row r="71" spans="1:47">
       <c r="B71" s="1">
         <v>1109</v>
       </c>
@@ -12974,11 +13714,15 @@
       <c r="AG71" s="1">
         <v>5343</v>
       </c>
-      <c r="AQ71" s="1">
+      <c r="AO71" s="1">
+        <v>6939</v>
+      </c>
+      <c r="AR71" s="1">
         <v>6647</v>
       </c>
-    </row>
-    <row r="72" spans="1:43">
+      <c r="AU71" s="1"/>
+    </row>
+    <row r="72" spans="1:47">
       <c r="B72" s="1">
         <v>1110</v>
       </c>
@@ -13006,11 +13750,15 @@
       <c r="AG72" s="1">
         <v>5344</v>
       </c>
-      <c r="AQ72" s="1">
+      <c r="AO72" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AR72" s="1">
         <v>6648</v>
       </c>
-    </row>
-    <row r="73" spans="1:43">
+      <c r="AU72" s="1"/>
+    </row>
+    <row r="73" spans="1:47">
       <c r="B73" s="1">
         <v>1111</v>
       </c>
@@ -13038,11 +13786,15 @@
       <c r="AG73" s="1">
         <v>5345</v>
       </c>
-      <c r="AQ73" s="1">
+      <c r="AO73" s="1">
+        <v>6941</v>
+      </c>
+      <c r="AR73" s="1">
         <v>6649</v>
       </c>
-    </row>
-    <row r="74" spans="1:43">
+      <c r="AU73" s="1"/>
+    </row>
+    <row r="74" spans="1:47">
       <c r="B74" s="1">
         <v>1112</v>
       </c>
@@ -13070,11 +13822,15 @@
       <c r="AG74" s="1">
         <v>5346</v>
       </c>
-      <c r="AQ74" s="1">
+      <c r="AO74" s="1">
+        <v>6942</v>
+      </c>
+      <c r="AR74" s="1">
         <v>6650</v>
       </c>
-    </row>
-    <row r="75" spans="1:43">
+      <c r="AU74" s="1"/>
+    </row>
+    <row r="75" spans="1:47">
       <c r="B75" s="1">
         <v>1113</v>
       </c>
@@ -13102,11 +13858,15 @@
       <c r="AG75" s="1">
         <v>5347</v>
       </c>
-      <c r="AQ75" s="1">
+      <c r="AO75" s="1">
+        <v>6943</v>
+      </c>
+      <c r="AR75" s="1">
         <v>6651</v>
       </c>
-    </row>
-    <row r="76" spans="1:43">
+      <c r="AU75" s="1"/>
+    </row>
+    <row r="76" spans="1:47">
       <c r="B76" s="1">
         <v>1114</v>
       </c>
@@ -13131,11 +13891,15 @@
       <c r="AG76" s="1">
         <v>5348</v>
       </c>
-      <c r="AQ76" s="1">
+      <c r="AO76" s="1">
+        <v>6944</v>
+      </c>
+      <c r="AR76" s="1">
         <v>6652</v>
       </c>
-    </row>
-    <row r="77" spans="1:43">
+      <c r="AU76" s="1"/>
+    </row>
+    <row r="77" spans="1:47">
       <c r="B77" s="1">
         <v>1264</v>
       </c>
@@ -13160,11 +13924,15 @@
       <c r="AG77" s="1">
         <v>5349</v>
       </c>
-      <c r="AQ77" s="1">
+      <c r="AO77" s="1">
+        <v>6945</v>
+      </c>
+      <c r="AR77" s="1">
         <v>6653</v>
       </c>
-    </row>
-    <row r="78" spans="1:43">
+      <c r="AU77" s="1"/>
+    </row>
+    <row r="78" spans="1:47">
       <c r="C78" s="1">
         <v>1153</v>
       </c>
@@ -13186,11 +13954,15 @@
       <c r="AG78" s="1">
         <v>5350</v>
       </c>
-      <c r="AQ78" s="1">
+      <c r="AO78" s="1">
+        <v>6946</v>
+      </c>
+      <c r="AR78" s="1">
         <v>6654</v>
       </c>
-    </row>
-    <row r="79" spans="1:43">
+      <c r="AU78" s="1"/>
+    </row>
+    <row r="79" spans="1:47">
       <c r="C79" s="1">
         <v>1154</v>
       </c>
@@ -13212,11 +13984,15 @@
       <c r="AG79" s="1">
         <v>5351</v>
       </c>
-      <c r="AQ79" s="1">
+      <c r="AO79" s="1">
+        <v>6947</v>
+      </c>
+      <c r="AR79" s="1">
         <v>6655</v>
       </c>
-    </row>
-    <row r="80" spans="1:43">
+      <c r="AU79" s="1"/>
+    </row>
+    <row r="80" spans="1:47">
       <c r="C80" s="1">
         <v>1155</v>
       </c>
@@ -13238,11 +14014,15 @@
       <c r="AG80" s="1">
         <v>5352</v>
       </c>
-      <c r="AQ80" s="1">
+      <c r="AO80" s="1">
+        <v>6948</v>
+      </c>
+      <c r="AR80" s="1">
         <v>6656</v>
       </c>
-    </row>
-    <row r="81" spans="3:43">
+      <c r="AU80" s="1"/>
+    </row>
+    <row r="81" spans="3:47">
       <c r="C81" s="1">
         <v>1156</v>
       </c>
@@ -13264,11 +14044,15 @@
       <c r="AG81" s="1">
         <v>5353</v>
       </c>
-      <c r="AQ81" s="1">
+      <c r="AO81" s="1">
+        <v>6949</v>
+      </c>
+      <c r="AR81" s="1">
         <v>6657</v>
       </c>
-    </row>
-    <row r="82" spans="3:43">
+      <c r="AU81" s="1"/>
+    </row>
+    <row r="82" spans="3:47">
       <c r="C82" s="1">
         <v>1157</v>
       </c>
@@ -13290,11 +14074,15 @@
       <c r="AG82" s="1">
         <v>5354</v>
       </c>
-      <c r="AQ82" s="1">
+      <c r="AO82" s="1">
+        <v>6950</v>
+      </c>
+      <c r="AR82" s="1">
         <v>6658</v>
       </c>
-    </row>
-    <row r="83" spans="3:43">
+      <c r="AU82" s="1"/>
+    </row>
+    <row r="83" spans="3:47">
       <c r="C83" s="1">
         <v>1158</v>
       </c>
@@ -13316,11 +14104,15 @@
       <c r="AG83" s="1">
         <v>5355</v>
       </c>
-      <c r="AQ83" s="1">
+      <c r="AO83" s="1">
+        <v>6951</v>
+      </c>
+      <c r="AR83" s="1">
         <v>6659</v>
       </c>
-    </row>
-    <row r="84" spans="3:43">
+      <c r="AU83" s="1"/>
+    </row>
+    <row r="84" spans="3:47">
       <c r="C84" s="1">
         <v>1159</v>
       </c>
@@ -13342,11 +14134,15 @@
       <c r="AG84" s="1">
         <v>5356</v>
       </c>
-      <c r="AQ84" s="1">
+      <c r="AO84" s="1">
+        <v>6952</v>
+      </c>
+      <c r="AR84" s="1">
         <v>6660</v>
       </c>
-    </row>
-    <row r="85" spans="3:43">
+      <c r="AU84" s="1"/>
+    </row>
+    <row r="85" spans="3:47">
       <c r="C85" s="1">
         <v>1160</v>
       </c>
@@ -13368,11 +14164,15 @@
       <c r="AG85" s="1">
         <v>5357</v>
       </c>
-      <c r="AQ85" s="1">
+      <c r="AO85" s="1">
+        <v>6953</v>
+      </c>
+      <c r="AR85" s="1">
         <v>6661</v>
       </c>
-    </row>
-    <row r="86" spans="3:43">
+      <c r="AU85" s="1"/>
+    </row>
+    <row r="86" spans="3:47">
       <c r="C86" s="1">
         <v>1161</v>
       </c>
@@ -13394,11 +14194,15 @@
       <c r="AG86" s="1">
         <v>5358</v>
       </c>
-      <c r="AQ86" s="1">
+      <c r="AO86" s="1">
+        <v>6954</v>
+      </c>
+      <c r="AR86" s="1">
         <v>6662</v>
       </c>
-    </row>
-    <row r="87" spans="3:43">
+      <c r="AU86" s="1"/>
+    </row>
+    <row r="87" spans="3:47">
       <c r="C87" s="1">
         <v>1162</v>
       </c>
@@ -13420,11 +14224,15 @@
       <c r="AG87" s="1">
         <v>5359</v>
       </c>
-      <c r="AQ87" s="1">
+      <c r="AO87" s="1">
+        <v>6955</v>
+      </c>
+      <c r="AR87" s="1">
         <v>6663</v>
       </c>
-    </row>
-    <row r="88" spans="3:43">
+      <c r="AU87" s="1"/>
+    </row>
+    <row r="88" spans="3:47">
       <c r="C88" s="1">
         <v>1163</v>
       </c>
@@ -13443,11 +14251,15 @@
       <c r="AD88" s="1">
         <v>6195</v>
       </c>
-      <c r="AQ88" s="1">
+      <c r="AO88" s="1">
+        <v>6956</v>
+      </c>
+      <c r="AR88" s="1">
         <v>6664</v>
       </c>
-    </row>
-    <row r="89" spans="3:43">
+      <c r="AU88" s="1"/>
+    </row>
+    <row r="89" spans="3:47">
       <c r="C89" s="1">
         <v>1164</v>
       </c>
@@ -13466,11 +14278,15 @@
       <c r="AD89" s="1">
         <v>6196</v>
       </c>
-      <c r="AQ89" s="1">
+      <c r="AO89" s="1">
+        <v>6957</v>
+      </c>
+      <c r="AR89" s="1">
         <v>6665</v>
       </c>
-    </row>
-    <row r="90" spans="3:43">
+      <c r="AU89" s="1"/>
+    </row>
+    <row r="90" spans="3:47">
       <c r="C90" s="1">
         <v>1165</v>
       </c>
@@ -13489,11 +14305,15 @@
       <c r="AD90" s="1">
         <v>6197</v>
       </c>
-      <c r="AQ90" s="1">
+      <c r="AO90" s="1">
+        <v>6958</v>
+      </c>
+      <c r="AR90" s="1">
         <v>6666</v>
       </c>
-    </row>
-    <row r="91" spans="3:43">
+      <c r="AU90" s="1"/>
+    </row>
+    <row r="91" spans="3:47">
       <c r="C91" s="1">
         <v>1166</v>
       </c>
@@ -13512,11 +14332,15 @@
       <c r="AD91" s="1">
         <v>6198</v>
       </c>
-      <c r="AQ91" s="1">
+      <c r="AO91" s="1">
+        <v>6959</v>
+      </c>
+      <c r="AR91" s="1">
         <v>6667</v>
       </c>
-    </row>
-    <row r="92" spans="3:43">
+      <c r="AU91" s="1"/>
+    </row>
+    <row r="92" spans="3:47">
       <c r="C92" s="1">
         <v>1167</v>
       </c>
@@ -13535,11 +14359,15 @@
       <c r="AD92" s="1">
         <v>6199</v>
       </c>
-      <c r="AQ92" s="1">
+      <c r="AO92" s="1">
+        <v>6960</v>
+      </c>
+      <c r="AR92" s="1">
         <v>6668</v>
       </c>
-    </row>
-    <row r="93" spans="3:43">
+      <c r="AU92" s="1"/>
+    </row>
+    <row r="93" spans="3:47">
       <c r="C93" s="1">
         <v>1168</v>
       </c>
@@ -13558,11 +14386,15 @@
       <c r="AD93" s="1">
         <v>6200</v>
       </c>
-      <c r="AQ93" s="1">
+      <c r="AO93" s="1">
+        <v>6961</v>
+      </c>
+      <c r="AR93" s="1">
         <v>6669</v>
       </c>
-    </row>
-    <row r="94" spans="3:43">
+      <c r="AU93" s="1"/>
+    </row>
+    <row r="94" spans="3:47">
       <c r="C94" s="1">
         <v>1169</v>
       </c>
@@ -13581,11 +14413,15 @@
       <c r="AD94" s="1">
         <v>6201</v>
       </c>
-      <c r="AQ94" s="1">
+      <c r="AO94" s="1">
+        <v>6962</v>
+      </c>
+      <c r="AR94" s="1">
         <v>6670</v>
       </c>
-    </row>
-    <row r="95" spans="3:43">
+      <c r="AU94" s="1"/>
+    </row>
+    <row r="95" spans="3:47">
       <c r="C95" s="1">
         <v>1170</v>
       </c>
@@ -13601,11 +14437,15 @@
       <c r="AD95" s="1">
         <v>6202</v>
       </c>
-      <c r="AQ95" s="1">
+      <c r="AO95" s="1">
+        <v>6963</v>
+      </c>
+      <c r="AR95" s="1">
         <v>6671</v>
       </c>
-    </row>
-    <row r="96" spans="3:43">
+      <c r="AU95" s="1"/>
+    </row>
+    <row r="96" spans="3:47">
       <c r="C96" s="1">
         <v>1171</v>
       </c>
@@ -13621,11 +14461,15 @@
       <c r="AD96" s="1">
         <v>6203</v>
       </c>
-      <c r="AQ96" s="1">
+      <c r="AO96" s="1">
+        <v>6964</v>
+      </c>
+      <c r="AR96" s="1">
         <v>6672</v>
       </c>
-    </row>
-    <row r="97" spans="3:43">
+      <c r="AU96" s="1"/>
+    </row>
+    <row r="97" spans="3:47">
       <c r="C97" s="1">
         <v>1172</v>
       </c>
@@ -13641,11 +14485,15 @@
       <c r="AD97" s="1">
         <v>6204</v>
       </c>
-      <c r="AQ97" s="1">
+      <c r="AO97" s="1">
+        <v>6965</v>
+      </c>
+      <c r="AR97" s="1">
         <v>6673</v>
       </c>
-    </row>
-    <row r="98" spans="3:43">
+      <c r="AU97" s="1"/>
+    </row>
+    <row r="98" spans="3:47">
       <c r="C98" s="1">
         <v>1173</v>
       </c>
@@ -13661,11 +14509,15 @@
       <c r="AD98" s="1">
         <v>6205</v>
       </c>
-      <c r="AQ98" s="1">
+      <c r="AO98" s="1">
+        <v>6966</v>
+      </c>
+      <c r="AR98" s="1">
         <v>6674</v>
       </c>
-    </row>
-    <row r="99" spans="3:43">
+      <c r="AU98" s="1"/>
+    </row>
+    <row r="99" spans="3:47">
       <c r="C99" s="1">
         <v>1174</v>
       </c>
@@ -13681,11 +14533,15 @@
       <c r="AD99" s="1">
         <v>6206</v>
       </c>
-      <c r="AQ99" s="1">
+      <c r="AO99" s="1">
+        <v>6967</v>
+      </c>
+      <c r="AR99" s="1">
         <v>6675</v>
       </c>
-    </row>
-    <row r="100" spans="3:43">
+      <c r="AU99" s="1"/>
+    </row>
+    <row r="100" spans="3:47">
       <c r="C100" s="1">
         <v>1175</v>
       </c>
@@ -13701,11 +14557,15 @@
       <c r="AD100" s="1">
         <v>6207</v>
       </c>
-      <c r="AQ100" s="1">
+      <c r="AO100" s="1">
+        <v>6968</v>
+      </c>
+      <c r="AR100" s="1">
         <v>6676</v>
       </c>
-    </row>
-    <row r="101" spans="3:43">
+      <c r="AU100" s="1"/>
+    </row>
+    <row r="101" spans="3:47">
       <c r="C101" s="1">
         <v>1176</v>
       </c>
@@ -13721,11 +14581,15 @@
       <c r="AD101" s="1">
         <v>6208</v>
       </c>
-      <c r="AQ101" s="1">
+      <c r="AO101" s="1">
+        <v>6969</v>
+      </c>
+      <c r="AR101" s="1">
         <v>6677</v>
       </c>
-    </row>
-    <row r="102" spans="3:43">
+      <c r="AU101" s="1"/>
+    </row>
+    <row r="102" spans="3:47">
       <c r="C102" s="1">
         <v>1177</v>
       </c>
@@ -13741,11 +14605,15 @@
       <c r="AD102" s="1">
         <v>6209</v>
       </c>
-      <c r="AQ102" s="1">
+      <c r="AO102" s="1">
+        <v>6970</v>
+      </c>
+      <c r="AR102" s="1">
         <v>6678</v>
       </c>
-    </row>
-    <row r="103" spans="3:43">
+      <c r="AU102" s="1"/>
+    </row>
+    <row r="103" spans="3:47">
       <c r="C103" s="1">
         <v>1178</v>
       </c>
@@ -13761,11 +14629,15 @@
       <c r="AD103" s="1">
         <v>6210</v>
       </c>
-      <c r="AQ103" s="1">
+      <c r="AO103" s="1">
+        <v>6971</v>
+      </c>
+      <c r="AR103" s="1">
         <v>6680</v>
       </c>
-    </row>
-    <row r="104" spans="3:43">
+      <c r="AU103" s="1"/>
+    </row>
+    <row r="104" spans="3:47">
       <c r="C104" s="1">
         <v>1179</v>
       </c>
@@ -13781,11 +14653,15 @@
       <c r="AD104" s="1">
         <v>6211</v>
       </c>
-      <c r="AQ104" s="1">
+      <c r="AO104" s="1">
+        <v>6972</v>
+      </c>
+      <c r="AR104" s="1">
         <v>6681</v>
       </c>
-    </row>
-    <row r="105" spans="3:43">
+      <c r="AU104" s="1"/>
+    </row>
+    <row r="105" spans="3:47">
       <c r="C105" s="1">
         <v>1180</v>
       </c>
@@ -13801,11 +14677,15 @@
       <c r="AD105" s="1">
         <v>6212</v>
       </c>
-      <c r="AQ105" s="1">
+      <c r="AO105" s="1">
+        <v>6973</v>
+      </c>
+      <c r="AR105" s="1">
         <v>6682</v>
       </c>
-    </row>
-    <row r="106" spans="3:43">
+      <c r="AU105" s="1"/>
+    </row>
+    <row r="106" spans="3:47">
       <c r="C106" s="1">
         <v>1181</v>
       </c>
@@ -13821,11 +14701,15 @@
       <c r="AD106" s="1">
         <v>6213</v>
       </c>
-      <c r="AQ106" s="1">
+      <c r="AO106" s="1">
+        <v>6974</v>
+      </c>
+      <c r="AR106" s="1">
         <v>6683</v>
       </c>
-    </row>
-    <row r="107" spans="3:43">
+      <c r="AU106" s="1"/>
+    </row>
+    <row r="107" spans="3:47">
       <c r="C107" s="1">
         <v>1182</v>
       </c>
@@ -13841,11 +14725,15 @@
       <c r="AD107" s="1">
         <v>6214</v>
       </c>
-      <c r="AQ107" s="1">
+      <c r="AO107" s="1">
+        <v>6975</v>
+      </c>
+      <c r="AR107" s="1">
         <v>6684</v>
       </c>
-    </row>
-    <row r="108" spans="3:43">
+      <c r="AU107" s="1"/>
+    </row>
+    <row r="108" spans="3:47">
       <c r="C108" s="1">
         <v>1183</v>
       </c>
@@ -13861,11 +14749,15 @@
       <c r="AD108" s="1">
         <v>6215</v>
       </c>
-      <c r="AQ108" s="1">
+      <c r="AO108" s="1">
+        <v>6976</v>
+      </c>
+      <c r="AR108" s="1">
         <v>6685</v>
       </c>
-    </row>
-    <row r="109" spans="3:43">
+      <c r="AU108" s="1"/>
+    </row>
+    <row r="109" spans="3:47">
       <c r="C109" s="1">
         <v>1184</v>
       </c>
@@ -13881,11 +14773,15 @@
       <c r="AD109" s="1">
         <v>6216</v>
       </c>
-      <c r="AQ109" s="1">
+      <c r="AO109" s="1">
+        <v>6977</v>
+      </c>
+      <c r="AR109" s="1">
         <v>6687</v>
       </c>
-    </row>
-    <row r="110" spans="3:43">
+      <c r="AU109" s="1"/>
+    </row>
+    <row r="110" spans="3:47">
       <c r="C110" s="1">
         <v>1185</v>
       </c>
@@ -13901,11 +14797,15 @@
       <c r="AD110" s="1">
         <v>6217</v>
       </c>
-      <c r="AQ110" s="1">
+      <c r="AO110" s="1">
+        <v>6978</v>
+      </c>
+      <c r="AR110" s="1">
         <v>6688</v>
       </c>
-    </row>
-    <row r="111" spans="3:43">
+      <c r="AU110" s="1"/>
+    </row>
+    <row r="111" spans="3:47">
       <c r="C111" s="1">
         <v>1186</v>
       </c>
@@ -13921,11 +14821,15 @@
       <c r="AD111" s="1">
         <v>6218</v>
       </c>
-      <c r="AQ111" s="1">
+      <c r="AO111" s="1">
+        <v>6979</v>
+      </c>
+      <c r="AR111" s="1">
         <v>6726</v>
       </c>
-    </row>
-    <row r="112" spans="3:43">
+      <c r="AU111" s="1"/>
+    </row>
+    <row r="112" spans="3:47">
       <c r="C112" s="1">
         <v>1187</v>
       </c>
@@ -13941,11 +14845,15 @@
       <c r="AD112" s="1">
         <v>6219</v>
       </c>
-      <c r="AQ112" s="1">
+      <c r="AO112" s="1">
+        <v>6980</v>
+      </c>
+      <c r="AR112" s="1">
         <v>6829</v>
       </c>
-    </row>
-    <row r="113" spans="3:43">
+      <c r="AU112" s="1"/>
+    </row>
+    <row r="113" spans="3:47">
       <c r="C113" s="1">
         <v>1188</v>
       </c>
@@ -13961,11 +14869,15 @@
       <c r="AD113" s="1">
         <v>6220</v>
       </c>
-      <c r="AQ113" s="1">
+      <c r="AO113" s="1">
+        <v>6981</v>
+      </c>
+      <c r="AR113" s="1">
         <v>6830</v>
       </c>
-    </row>
-    <row r="114" spans="3:43">
+      <c r="AU113" s="1"/>
+    </row>
+    <row r="114" spans="3:47">
       <c r="C114" s="1">
         <v>1189</v>
       </c>
@@ -13981,11 +14893,15 @@
       <c r="AD114" s="1">
         <v>6221</v>
       </c>
-      <c r="AQ114" s="1">
+      <c r="AO114" s="1">
+        <v>6982</v>
+      </c>
+      <c r="AR114" s="1">
         <v>6831</v>
       </c>
-    </row>
-    <row r="115" spans="3:43">
+      <c r="AU114" s="1"/>
+    </row>
+    <row r="115" spans="3:47">
       <c r="C115" s="1">
         <v>1190</v>
       </c>
@@ -14001,11 +14917,15 @@
       <c r="AD115" s="1">
         <v>6222</v>
       </c>
-      <c r="AQ115" s="1">
+      <c r="AO115" s="1">
+        <v>6983</v>
+      </c>
+      <c r="AR115" s="1">
         <v>6832</v>
       </c>
-    </row>
-    <row r="116" spans="3:43">
+      <c r="AU115" s="1"/>
+    </row>
+    <row r="116" spans="3:47">
       <c r="C116" s="1">
         <v>1191</v>
       </c>
@@ -14021,11 +14941,15 @@
       <c r="AD116" s="1">
         <v>6223</v>
       </c>
-      <c r="AQ116" s="1">
+      <c r="AO116" s="1">
+        <v>6984</v>
+      </c>
+      <c r="AR116" s="1">
         <v>6833</v>
       </c>
-    </row>
-    <row r="117" spans="3:43">
+      <c r="AU116" s="1"/>
+    </row>
+    <row r="117" spans="3:47">
       <c r="C117" s="1">
         <v>1192</v>
       </c>
@@ -14041,11 +14965,15 @@
       <c r="AD117" s="1">
         <v>6224</v>
       </c>
-      <c r="AQ117" s="1">
+      <c r="AO117" s="1">
+        <v>6985</v>
+      </c>
+      <c r="AR117" s="1">
         <v>6834</v>
       </c>
-    </row>
-    <row r="118" spans="3:43">
+      <c r="AU117" s="1"/>
+    </row>
+    <row r="118" spans="3:47">
       <c r="C118" s="1">
         <v>1193</v>
       </c>
@@ -14061,11 +14989,15 @@
       <c r="AD118" s="1">
         <v>6225</v>
       </c>
-      <c r="AQ118" s="1">
+      <c r="AO118" s="1">
+        <v>6986</v>
+      </c>
+      <c r="AR118" s="1">
         <v>6835</v>
       </c>
-    </row>
-    <row r="119" spans="3:43">
+      <c r="AU118" s="1"/>
+    </row>
+    <row r="119" spans="3:47">
       <c r="C119" s="1">
         <v>1194</v>
       </c>
@@ -14081,11 +15013,15 @@
       <c r="AD119" s="1">
         <v>6226</v>
       </c>
-      <c r="AQ119" s="1">
+      <c r="AO119" s="1">
+        <v>6987</v>
+      </c>
+      <c r="AR119" s="1">
         <v>6836</v>
       </c>
-    </row>
-    <row r="120" spans="3:43">
+      <c r="AU119" s="1"/>
+    </row>
+    <row r="120" spans="3:47">
       <c r="C120" s="1">
         <v>1195</v>
       </c>
@@ -14101,11 +15037,15 @@
       <c r="AD120" s="1">
         <v>6227</v>
       </c>
-      <c r="AQ120" s="1">
+      <c r="AO120" s="1">
+        <v>6988</v>
+      </c>
+      <c r="AR120" s="1">
         <v>6837</v>
       </c>
-    </row>
-    <row r="121" spans="3:43">
+      <c r="AU120" s="1"/>
+    </row>
+    <row r="121" spans="3:47">
       <c r="C121" s="1">
         <v>1196</v>
       </c>
@@ -14121,11 +15061,15 @@
       <c r="AD121" s="1">
         <v>6228</v>
       </c>
-      <c r="AQ121" s="1">
+      <c r="AO121" s="1">
+        <v>6989</v>
+      </c>
+      <c r="AR121" s="1">
         <v>6838</v>
       </c>
-    </row>
-    <row r="122" spans="3:43">
+      <c r="AU121" s="1"/>
+    </row>
+    <row r="122" spans="3:47">
       <c r="C122" s="1">
         <v>1197</v>
       </c>
@@ -14141,11 +15085,15 @@
       <c r="AD122" s="1">
         <v>6229</v>
       </c>
-      <c r="AQ122" s="1">
+      <c r="AO122" s="1">
+        <v>6990</v>
+      </c>
+      <c r="AR122" s="1">
         <v>6839</v>
       </c>
-    </row>
-    <row r="123" spans="3:43">
+      <c r="AU122" s="1"/>
+    </row>
+    <row r="123" spans="3:47">
       <c r="C123" s="1">
         <v>1198</v>
       </c>
@@ -14161,11 +15109,15 @@
       <c r="AD123" s="1">
         <v>6230</v>
       </c>
-      <c r="AQ123" s="1">
+      <c r="AO123" s="1">
+        <v>6991</v>
+      </c>
+      <c r="AR123" s="1">
         <v>6840</v>
       </c>
-    </row>
-    <row r="124" spans="3:43">
+      <c r="AU123" s="1"/>
+    </row>
+    <row r="124" spans="3:47">
       <c r="C124" s="1">
         <v>1199</v>
       </c>
@@ -14181,11 +15133,15 @@
       <c r="AD124" s="1">
         <v>6231</v>
       </c>
-      <c r="AQ124" s="1">
+      <c r="AO124" s="1">
+        <v>6992</v>
+      </c>
+      <c r="AR124" s="1">
         <v>6841</v>
       </c>
-    </row>
-    <row r="125" spans="3:43">
+      <c r="AU124" s="1"/>
+    </row>
+    <row r="125" spans="3:47">
       <c r="C125" s="1">
         <v>1200</v>
       </c>
@@ -14201,11 +15157,15 @@
       <c r="AD125" s="1">
         <v>6232</v>
       </c>
-      <c r="AQ125" s="1">
+      <c r="AO125" s="1">
+        <v>6993</v>
+      </c>
+      <c r="AR125" s="1">
         <v>6842</v>
       </c>
-    </row>
-    <row r="126" spans="3:43">
+      <c r="AU125" s="1"/>
+    </row>
+    <row r="126" spans="3:47">
       <c r="C126" s="1">
         <v>1201</v>
       </c>
@@ -14221,11 +15181,15 @@
       <c r="AD126" s="1">
         <v>6233</v>
       </c>
-      <c r="AQ126" s="1">
+      <c r="AO126" s="1">
+        <v>6994</v>
+      </c>
+      <c r="AR126" s="1">
         <v>6843</v>
       </c>
-    </row>
-    <row r="127" spans="3:43">
+      <c r="AU126" s="1"/>
+    </row>
+    <row r="127" spans="3:47">
       <c r="C127" s="1">
         <v>1202</v>
       </c>
@@ -14241,11 +15205,15 @@
       <c r="AD127" s="1">
         <v>6234</v>
       </c>
-      <c r="AQ127" s="1">
+      <c r="AO127" s="1">
+        <v>6995</v>
+      </c>
+      <c r="AR127" s="1">
         <v>6844</v>
       </c>
-    </row>
-    <row r="128" spans="3:43">
+      <c r="AU127" s="1"/>
+    </row>
+    <row r="128" spans="3:47">
       <c r="C128" s="1">
         <v>1203</v>
       </c>
@@ -14261,11 +15229,15 @@
       <c r="AD128" s="1">
         <v>6235</v>
       </c>
-      <c r="AQ128" s="1">
+      <c r="AO128" s="1">
+        <v>6996</v>
+      </c>
+      <c r="AR128" s="1">
         <v>6845</v>
       </c>
-    </row>
-    <row r="129" spans="3:43">
+      <c r="AU128" s="1"/>
+    </row>
+    <row r="129" spans="3:47">
       <c r="C129" s="1">
         <v>1204</v>
       </c>
@@ -14281,11 +15253,15 @@
       <c r="AD129" s="1">
         <v>6236</v>
       </c>
-      <c r="AQ129" s="1">
+      <c r="AO129" s="1">
+        <v>6997</v>
+      </c>
+      <c r="AR129" s="1">
         <v>6846</v>
       </c>
-    </row>
-    <row r="130" spans="3:43">
+      <c r="AU129" s="1"/>
+    </row>
+    <row r="130" spans="3:47">
       <c r="C130" s="1">
         <v>1205</v>
       </c>
@@ -14301,11 +15277,15 @@
       <c r="AD130" s="1">
         <v>6237</v>
       </c>
-      <c r="AQ130" s="1">
+      <c r="AO130" s="1">
+        <v>6998</v>
+      </c>
+      <c r="AR130" s="1">
         <v>6847</v>
       </c>
-    </row>
-    <row r="131" spans="3:43">
+      <c r="AU130" s="1"/>
+    </row>
+    <row r="131" spans="3:47">
       <c r="C131" s="1">
         <v>1206</v>
       </c>
@@ -14318,11 +15298,15 @@
       <c r="AD131" s="1">
         <v>6238</v>
       </c>
-      <c r="AQ131" s="1">
+      <c r="AO131" s="1">
+        <v>6999</v>
+      </c>
+      <c r="AR131" s="1">
         <v>6848</v>
       </c>
-    </row>
-    <row r="132" spans="3:43">
+      <c r="AU131" s="1"/>
+    </row>
+    <row r="132" spans="3:47">
       <c r="C132" s="1">
         <v>1207</v>
       </c>
@@ -14335,11 +15319,15 @@
       <c r="AD132" s="1">
         <v>6239</v>
       </c>
-      <c r="AQ132" s="1">
+      <c r="AO132" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AR132" s="1">
         <v>6849</v>
       </c>
-    </row>
-    <row r="133" spans="3:43">
+      <c r="AU132" s="1"/>
+    </row>
+    <row r="133" spans="3:47">
       <c r="C133" s="1">
         <v>1208</v>
       </c>
@@ -14352,11 +15340,15 @@
       <c r="AD133" s="1">
         <v>6265</v>
       </c>
-      <c r="AQ133" s="1">
+      <c r="AO133" s="1">
+        <v>7001</v>
+      </c>
+      <c r="AR133" s="1">
         <v>6850</v>
       </c>
-    </row>
-    <row r="134" spans="3:43">
+      <c r="AU133" s="1"/>
+    </row>
+    <row r="134" spans="3:47">
       <c r="C134" s="1">
         <v>1209</v>
       </c>
@@ -14369,11 +15361,15 @@
       <c r="AD134" s="1">
         <v>6266</v>
       </c>
-      <c r="AQ134" s="1">
+      <c r="AO134" s="1">
+        <v>7002</v>
+      </c>
+      <c r="AR134" s="1">
         <v>6851</v>
       </c>
-    </row>
-    <row r="135" spans="3:43">
+      <c r="AU134" s="1"/>
+    </row>
+    <row r="135" spans="3:47">
       <c r="C135" s="1">
         <v>1210</v>
       </c>
@@ -14386,11 +15382,15 @@
       <c r="AD135" s="1">
         <v>6267</v>
       </c>
-      <c r="AQ135" s="1">
+      <c r="AO135" s="1">
+        <v>7003</v>
+      </c>
+      <c r="AR135" s="1">
         <v>6852</v>
       </c>
-    </row>
-    <row r="136" spans="3:43">
+      <c r="AU135" s="1"/>
+    </row>
+    <row r="136" spans="3:47">
       <c r="C136" s="1">
         <v>1211</v>
       </c>
@@ -14403,11 +15403,15 @@
       <c r="AD136" s="1">
         <v>6268</v>
       </c>
-      <c r="AQ136" s="1">
+      <c r="AO136" s="1">
+        <v>7004</v>
+      </c>
+      <c r="AR136" s="1">
         <v>6853</v>
       </c>
-    </row>
-    <row r="137" spans="3:43">
+      <c r="AU136" s="1"/>
+    </row>
+    <row r="137" spans="3:47">
       <c r="C137" s="1">
         <v>1212</v>
       </c>
@@ -14420,11 +15424,15 @@
       <c r="AD137" s="1">
         <v>6269</v>
       </c>
-      <c r="AQ137" s="1">
+      <c r="AO137" s="1">
+        <v>7005</v>
+      </c>
+      <c r="AR137" s="1">
         <v>6854</v>
       </c>
-    </row>
-    <row r="138" spans="3:43">
+      <c r="AU137" s="1"/>
+    </row>
+    <row r="138" spans="3:47">
       <c r="C138" s="1">
         <v>1213</v>
       </c>
@@ -14437,11 +15445,15 @@
       <c r="AD138" s="1">
         <v>6270</v>
       </c>
-      <c r="AQ138" s="1">
+      <c r="AO138" s="1">
+        <v>7006</v>
+      </c>
+      <c r="AR138" s="1">
         <v>6855</v>
       </c>
-    </row>
-    <row r="139" spans="3:43">
+      <c r="AU138" s="1"/>
+    </row>
+    <row r="139" spans="3:47">
       <c r="C139" s="1">
         <v>1214</v>
       </c>
@@ -14454,11 +15466,15 @@
       <c r="AD139" s="1">
         <v>6271</v>
       </c>
-      <c r="AQ139" s="1">
+      <c r="AO139" s="1">
+        <v>7007</v>
+      </c>
+      <c r="AR139" s="1">
         <v>6856</v>
       </c>
-    </row>
-    <row r="140" spans="3:43">
+      <c r="AU139" s="1"/>
+    </row>
+    <row r="140" spans="3:47">
       <c r="C140" s="1">
         <v>1215</v>
       </c>
@@ -14471,11 +15487,15 @@
       <c r="AD140" s="1">
         <v>6272</v>
       </c>
-      <c r="AQ140" s="1">
+      <c r="AO140" s="1">
+        <v>7008</v>
+      </c>
+      <c r="AR140" s="1">
         <v>6857</v>
       </c>
-    </row>
-    <row r="141" spans="3:43">
+      <c r="AU140" s="1"/>
+    </row>
+    <row r="141" spans="3:47">
       <c r="C141" s="1">
         <v>1216</v>
       </c>
@@ -14488,11 +15508,15 @@
       <c r="AD141" s="1">
         <v>6273</v>
       </c>
-      <c r="AQ141" s="1">
+      <c r="AO141" s="1">
+        <v>7009</v>
+      </c>
+      <c r="AR141" s="1">
         <v>6858</v>
       </c>
-    </row>
-    <row r="142" spans="3:43">
+      <c r="AU141" s="1"/>
+    </row>
+    <row r="142" spans="3:47">
       <c r="C142" s="1">
         <v>1217</v>
       </c>
@@ -14505,11 +15529,15 @@
       <c r="AD142" s="1">
         <v>6274</v>
       </c>
-      <c r="AQ142" s="1">
+      <c r="AO142" s="1">
+        <v>7010</v>
+      </c>
+      <c r="AR142" s="1">
         <v>6859</v>
       </c>
-    </row>
-    <row r="143" spans="3:43">
+      <c r="AU142" s="1"/>
+    </row>
+    <row r="143" spans="3:47">
       <c r="C143" s="1">
         <v>1218</v>
       </c>
@@ -14522,11 +15550,15 @@
       <c r="AD143" s="1">
         <v>6275</v>
       </c>
-      <c r="AQ143" s="1">
+      <c r="AO143" s="1">
+        <v>7011</v>
+      </c>
+      <c r="AR143" s="1">
         <v>6860</v>
       </c>
-    </row>
-    <row r="144" spans="3:43">
+      <c r="AU143" s="1"/>
+    </row>
+    <row r="144" spans="3:47">
       <c r="C144" s="1">
         <v>1219</v>
       </c>
@@ -15810,9 +16842,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -16029,26 +17063,31 @@
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" t="s">
         <v>93</v>
       </c>
     </row>
